--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.571842662123117</v>
+        <v>2.571842662123402</v>
       </c>
       <c r="C2">
-        <v>0.3840420001248219</v>
+        <v>0.3840420001247935</v>
       </c>
       <c r="D2">
-        <v>0.2060899320470355</v>
+        <v>0.2060899320473055</v>
       </c>
       <c r="E2">
-        <v>0.315476450701027</v>
+        <v>0.3154764507010199</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923982607768238</v>
+        <v>8.92398260776821</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6325598292194101</v>
+        <v>0.6325598292193746</v>
       </c>
       <c r="K2">
-        <v>0.44090593544</v>
+        <v>0.4409059354399645</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>2.188365629388841</v>
       </c>
       <c r="C3">
-        <v>0.32378675429905</v>
+        <v>0.3237867542991069</v>
       </c>
       <c r="D3">
-        <v>0.1764817631226663</v>
+        <v>0.1764817631225242</v>
       </c>
       <c r="E3">
-        <v>0.2698145254821043</v>
+        <v>0.2698145254821895</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.769878158836462</v>
+        <v>7.769878158836349</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5364481433843977</v>
+        <v>0.5364481433843906</v>
       </c>
       <c r="K3">
-        <v>0.3754791956967978</v>
+        <v>0.3754791956967765</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961910657058382</v>
+        <v>1.961910657058553</v>
       </c>
       <c r="C4">
         <v>0.2883924279116599</v>
       </c>
       <c r="D4">
-        <v>0.1588503074323171</v>
+        <v>0.1588503074320897</v>
       </c>
       <c r="E4">
-        <v>0.2426678120208834</v>
+        <v>0.2426678120209473</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4797552576435038</v>
+        <v>0.479755257643582</v>
       </c>
       <c r="K4">
-        <v>0.3366738430433074</v>
+        <v>0.3366738430433216</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871532209974816</v>
+        <v>1.871532209975015</v>
       </c>
       <c r="C5">
-        <v>0.2743012872732749</v>
+        <v>0.2743012872741559</v>
       </c>
       <c r="D5">
-        <v>0.1517806552316046</v>
+        <v>0.1517806552318035</v>
       </c>
       <c r="E5">
-        <v>0.2317917101256199</v>
+        <v>0.2317917101256768</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805652497334677</v>
+        <v>6.805652497334705</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.457141093065573</v>
       </c>
       <c r="K5">
-        <v>0.3211462987531135</v>
+        <v>0.3211462987531704</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856630359530101</v>
+        <v>1.856630359529959</v>
       </c>
       <c r="C6">
-        <v>0.2719796661729248</v>
+        <v>0.2719796661729958</v>
       </c>
       <c r="D6">
-        <v>0.1506131083741309</v>
+        <v>0.1506131083744009</v>
       </c>
       <c r="E6">
-        <v>0.2299960043770994</v>
+        <v>0.2299960043771279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4534130249397279</v>
+        <v>0.4534130249397421</v>
       </c>
       <c r="K6">
-        <v>0.3185836961391146</v>
+        <v>0.3185836961391004</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960684511874064</v>
+        <v>1.960684511874433</v>
       </c>
       <c r="C7">
-        <v>0.2882011300739151</v>
+        <v>0.2882011300739293</v>
       </c>
       <c r="D7">
-        <v>0.1587545242881276</v>
+        <v>0.1587545242879429</v>
       </c>
       <c r="E7">
-        <v>0.2425204240101237</v>
+        <v>0.2425204240101451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.07804086086108</v>
+        <v>7.078040860861108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.4794484120208651</v>
       </c>
       <c r="K7">
-        <v>0.3364633458033666</v>
+        <v>0.3364633458034163</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437517884212696</v>
+        <v>2.43751788421298</v>
       </c>
       <c r="C8">
-        <v>0.3628873104876504</v>
+        <v>0.362887310488162</v>
       </c>
       <c r="D8">
-        <v>0.1957527058292072</v>
+        <v>0.1957527058293209</v>
       </c>
       <c r="E8">
-        <v>0.299523291602533</v>
+        <v>0.2995232916024975</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.521213680057485</v>
+        <v>8.5212136800574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5988773904734686</v>
+        <v>0.5988773904734757</v>
       </c>
       <c r="K8">
-        <v>0.4180255726778057</v>
+        <v>0.418025572677827</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.463622909830065</v>
+        <v>3.463622909829894</v>
       </c>
       <c r="C9">
-        <v>0.5259495913568912</v>
+        <v>0.525949591357346</v>
       </c>
       <c r="D9">
-        <v>0.273872398797252</v>
+        <v>0.2738723987970246</v>
       </c>
       <c r="E9">
         <v>0.4203956274023355</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.56203235849316</v>
+        <v>11.56203235849301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8566635306232442</v>
+        <v>0.8566635306232158</v>
       </c>
       <c r="K9">
-        <v>0.5919634158109233</v>
+        <v>0.5919634158109659</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.307464607525731</v>
+        <v>4.30746460752556</v>
       </c>
       <c r="C10">
-        <v>0.6627777660823995</v>
+        <v>0.6627777660817742</v>
       </c>
       <c r="D10">
-        <v>0.3367782383140536</v>
+        <v>0.3367782383140252</v>
       </c>
       <c r="E10">
-        <v>0.5182899939529833</v>
+        <v>0.5182899939529619</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.00792492782844</v>
+        <v>14.00792492782855</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.069559433837128</v>
+        <v>1.069559433837185</v>
       </c>
       <c r="K10">
         <v>0.7338175962380831</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.721469873427225</v>
+        <v>4.721469873426827</v>
       </c>
       <c r="C11">
-        <v>0.7308735092467771</v>
+        <v>0.7308735092477434</v>
       </c>
       <c r="D11">
-        <v>0.367234014150597</v>
+        <v>0.3672340141505259</v>
       </c>
       <c r="E11">
-        <v>0.5658814968274726</v>
+        <v>0.5658814968275294</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.1918779785276</v>
+        <v>15.19187797852777</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.174325721322546</v>
+        <v>1.174325721322631</v>
       </c>
       <c r="K11">
-        <v>0.8031025316453793</v>
+        <v>0.8031025316453508</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>4.883784182129943</v>
       </c>
       <c r="C12">
-        <v>0.7577496147871443</v>
+        <v>0.7577496147868885</v>
       </c>
       <c r="D12">
-        <v>0.3791036785707149</v>
+        <v>0.3791036785706723</v>
       </c>
       <c r="E12">
-        <v>0.5844659949885909</v>
+        <v>0.5844659949885411</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.65331470149727</v>
+        <v>15.65331470149732</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.215458408577476</v>
+        <v>1.215458408577447</v>
       </c>
       <c r="K12">
-        <v>0.8302164324817838</v>
+        <v>0.8302164324817554</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.848557439791932</v>
+        <v>4.848557439791819</v>
       </c>
       <c r="C13">
-        <v>0.7519081179008822</v>
+        <v>0.7519081179003422</v>
       </c>
       <c r="D13">
-        <v>0.3765309845170464</v>
+        <v>0.3765309845175295</v>
       </c>
       <c r="E13">
-        <v>0.5804361227804691</v>
+        <v>0.5804361227803625</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.55329926164262</v>
+        <v>15.55329926164245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.206528657395452</v>
+        <v>1.206528657395538</v>
       </c>
       <c r="K13">
-        <v>0.8243342506953297</v>
+        <v>0.8243342506953155</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.734704368702296</v>
+        <v>4.734704368702069</v>
       </c>
       <c r="C14">
-        <v>0.7330610892438472</v>
+        <v>0.7330610892446145</v>
       </c>
       <c r="D14">
-        <v>0.368203303060497</v>
+        <v>0.3682033030606817</v>
       </c>
       <c r="E14">
         <v>0.5673983474817987</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.2295589100728</v>
+        <v>15.22955891007234</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.177678289777674</v>
+        <v>1.177678289777589</v>
       </c>
       <c r="K14">
-        <v>0.805314315252609</v>
+        <v>0.8053143152526019</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.665729276274874</v>
+        <v>4.665729276274988</v>
       </c>
       <c r="C15">
-        <v>0.7216673029986396</v>
+        <v>0.7216673029988669</v>
       </c>
       <c r="D15">
-        <v>0.3631486986847108</v>
+        <v>0.3631486986845118</v>
       </c>
       <c r="E15">
-        <v>0.5594898521298575</v>
+        <v>0.5594898521298362</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.160207886596652</v>
+        <v>1.160207886596822</v>
       </c>
       <c r="K15">
-        <v>0.793785000419561</v>
+        <v>0.7937850004195042</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.281110278647986</v>
+        <v>4.281110278648043</v>
       </c>
       <c r="C16">
-        <v>0.6584648988071251</v>
+        <v>0.6584648988070398</v>
       </c>
       <c r="D16">
-        <v>0.3348306292400594</v>
+        <v>0.3348306292404715</v>
       </c>
       <c r="E16">
-        <v>0.5152510573186788</v>
+        <v>0.515251057318693</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.93221146298134</v>
+        <v>13.93221146298157</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.06289747010257</v>
+        <v>1.062897470102556</v>
       </c>
       <c r="K16">
-        <v>0.7294006538038857</v>
+        <v>0.7294006538038076</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.053634341032023</v>
+        <v>4.053634341032591</v>
       </c>
       <c r="C17">
-        <v>0.6213460962682973</v>
+        <v>0.621346096267132</v>
       </c>
       <c r="D17">
-        <v>0.3179750674811714</v>
+        <v>0.3179750674815125</v>
       </c>
       <c r="E17">
-        <v>0.488972584535361</v>
+        <v>0.4889725845352899</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.27693014599697</v>
+        <v>13.27693014599686</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.005430199164095</v>
+        <v>1.005430199163982</v>
       </c>
       <c r="K17">
-        <v>0.6912421037617378</v>
+        <v>0.6912421037617023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.925544228252306</v>
+        <v>3.925544228252647</v>
       </c>
       <c r="C18">
-        <v>0.600528800085641</v>
+        <v>0.6005288000855558</v>
       </c>
       <c r="D18">
-        <v>0.3084480672439582</v>
+        <v>0.3084480672442993</v>
       </c>
       <c r="E18">
-        <v>0.4741368103848416</v>
+        <v>0.4741368103848203</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.90653296942989</v>
+        <v>12.90653296943006</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9730982559295143</v>
+        <v>0.9730982559294858</v>
       </c>
       <c r="K18">
-        <v>0.6697276294944672</v>
+        <v>0.6697276294944885</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.88261564829628</v>
+        <v>3.882615648296166</v>
       </c>
       <c r="C19">
-        <v>0.5935654352827271</v>
+        <v>0.5935654352831534</v>
       </c>
       <c r="D19">
-        <v>0.3052493276894097</v>
+        <v>0.3052493276893671</v>
       </c>
       <c r="E19">
-        <v>0.4691583665621266</v>
+        <v>0.4691583665619774</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.78216520463522</v>
+        <v>12.78216520463531</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9622668041812403</v>
+        <v>0.9622668041812972</v>
       </c>
       <c r="K19">
-        <v>0.6625125758338868</v>
+        <v>0.6625125758339649</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.077557464906761</v>
+        <v>4.077557464906533</v>
       </c>
       <c r="C20">
-        <v>0.6252407781059901</v>
+        <v>0.6252407781064448</v>
       </c>
       <c r="D20">
-        <v>0.3197515353391083</v>
+        <v>0.3197515353393783</v>
       </c>
       <c r="E20">
         <v>0.4917403248364423</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.34599471974937</v>
+        <v>13.34599471974968</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.011470953595833</v>
+        <v>1.011470953595847</v>
       </c>
       <c r="K20">
-        <v>0.6952580701208859</v>
+        <v>0.6952580701208078</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.767984048741539</v>
+        <v>4.767984048741425</v>
       </c>
       <c r="C21">
-        <v>0.7385649862449952</v>
+        <v>0.7385649862444552</v>
       </c>
       <c r="D21">
-        <v>0.370639528443391</v>
+        <v>0.3706395284438742</v>
       </c>
       <c r="E21">
-        <v>0.5712114315262085</v>
+        <v>0.5712114315262653</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.32426704243107</v>
+        <v>15.3242670424309</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.186109681203106</v>
+        <v>1.186109681203092</v>
       </c>
       <c r="K21">
-        <v>0.8108752969616688</v>
+        <v>0.8108752969618109</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.252352607291982</v>
+        <v>5.252352607291357</v>
       </c>
       <c r="C22">
-        <v>0.8191571867128005</v>
+        <v>0.8191571867128573</v>
       </c>
       <c r="D22">
-        <v>0.4059104848922601</v>
+        <v>0.405910484892047</v>
       </c>
       <c r="E22">
-        <v>0.6265156181981411</v>
+        <v>0.6265156181981766</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.69551093672163</v>
+        <v>16.69551093672135</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.30898222321359</v>
+        <v>1.308982223213519</v>
       </c>
       <c r="K22">
-        <v>0.8916867274161007</v>
+        <v>0.8916867274161575</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.990305152983581</v>
+        <v>4.990305152983694</v>
       </c>
       <c r="C23">
-        <v>0.7754427648696094</v>
+        <v>0.7754427648696378</v>
       </c>
       <c r="D23">
-        <v>0.386871895263198</v>
+        <v>0.3868718952632975</v>
       </c>
       <c r="E23">
-        <v>0.5966401432817818</v>
+        <v>0.5966401432817392</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.95531521302985</v>
+        <v>15.95531521302968</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.24247029559632</v>
+        <v>1.242470295596377</v>
       </c>
       <c r="K23">
-        <v>0.8479957779996923</v>
+        <v>0.8479957779997278</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.066733531420311</v>
+        <v>4.066733531420482</v>
       </c>
       <c r="C24">
-        <v>0.6234783816954064</v>
+        <v>0.6234783816959464</v>
       </c>
       <c r="D24">
-        <v>0.3189478901533391</v>
+        <v>0.3189478901533818</v>
       </c>
       <c r="E24">
-        <v>0.4904881907663139</v>
+        <v>0.4904881907662784</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.31475110400936</v>
+        <v>13.31475110400947</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.008737750010297</v>
+        <v>1.008737750010255</v>
       </c>
       <c r="K24">
-        <v>0.6934411467687625</v>
+        <v>0.6934411467688264</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.173184273409788</v>
+        <v>3.17318427340939</v>
       </c>
       <c r="C25">
-        <v>0.4794415688077436</v>
+        <v>0.4794415688072604</v>
       </c>
       <c r="D25">
-        <v>0.2519511487749213</v>
+        <v>0.2519511487747792</v>
       </c>
       <c r="E25">
-        <v>0.3864028871611325</v>
+        <v>0.3864028871610685</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.70930055868993</v>
+        <v>10.7093005586897</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.783580210097341</v>
+        <v>0.78358021009727</v>
       </c>
       <c r="K25">
-        <v>0.5429122066849601</v>
+        <v>0.5429122066849672</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.571842662123402</v>
+        <v>2.571842662123117</v>
       </c>
       <c r="C2">
-        <v>0.3840420001247935</v>
+        <v>0.3840420001248219</v>
       </c>
       <c r="D2">
-        <v>0.2060899320473055</v>
+        <v>0.2060899320470355</v>
       </c>
       <c r="E2">
-        <v>0.3154764507010199</v>
+        <v>0.315476450701027</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.92398260776821</v>
+        <v>8.923982607768238</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6325598292193746</v>
+        <v>0.6325598292194101</v>
       </c>
       <c r="K2">
-        <v>0.4409059354399645</v>
+        <v>0.44090593544</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>2.188365629388841</v>
       </c>
       <c r="C3">
-        <v>0.3237867542991069</v>
+        <v>0.32378675429905</v>
       </c>
       <c r="D3">
-        <v>0.1764817631225242</v>
+        <v>0.1764817631226663</v>
       </c>
       <c r="E3">
-        <v>0.2698145254821895</v>
+        <v>0.2698145254821043</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.769878158836349</v>
+        <v>7.769878158836462</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5364481433843906</v>
+        <v>0.5364481433843977</v>
       </c>
       <c r="K3">
-        <v>0.3754791956967765</v>
+        <v>0.3754791956967978</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961910657058553</v>
+        <v>1.961910657058382</v>
       </c>
       <c r="C4">
         <v>0.2883924279116599</v>
       </c>
       <c r="D4">
-        <v>0.1588503074320897</v>
+        <v>0.1588503074323171</v>
       </c>
       <c r="E4">
-        <v>0.2426678120209473</v>
+        <v>0.2426678120208834</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.479755257643582</v>
+        <v>0.4797552576435038</v>
       </c>
       <c r="K4">
-        <v>0.3366738430433216</v>
+        <v>0.3366738430433074</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871532209975015</v>
+        <v>1.871532209974816</v>
       </c>
       <c r="C5">
-        <v>0.2743012872741559</v>
+        <v>0.2743012872732749</v>
       </c>
       <c r="D5">
-        <v>0.1517806552318035</v>
+        <v>0.1517806552316046</v>
       </c>
       <c r="E5">
-        <v>0.2317917101256768</v>
+        <v>0.2317917101256199</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805652497334705</v>
+        <v>6.805652497334677</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.457141093065573</v>
       </c>
       <c r="K5">
-        <v>0.3211462987531704</v>
+        <v>0.3211462987531135</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856630359529959</v>
+        <v>1.856630359530101</v>
       </c>
       <c r="C6">
-        <v>0.2719796661729958</v>
+        <v>0.2719796661729248</v>
       </c>
       <c r="D6">
-        <v>0.1506131083744009</v>
+        <v>0.1506131083741309</v>
       </c>
       <c r="E6">
-        <v>0.2299960043771279</v>
+        <v>0.2299960043770994</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4534130249397421</v>
+        <v>0.4534130249397279</v>
       </c>
       <c r="K6">
-        <v>0.3185836961391004</v>
+        <v>0.3185836961391146</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960684511874433</v>
+        <v>1.960684511874064</v>
       </c>
       <c r="C7">
-        <v>0.2882011300739293</v>
+        <v>0.2882011300739151</v>
       </c>
       <c r="D7">
-        <v>0.1587545242879429</v>
+        <v>0.1587545242881276</v>
       </c>
       <c r="E7">
-        <v>0.2425204240101451</v>
+        <v>0.2425204240101237</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.078040860861108</v>
+        <v>7.07804086086108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.4794484120208651</v>
       </c>
       <c r="K7">
-        <v>0.3364633458034163</v>
+        <v>0.3364633458033666</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.43751788421298</v>
+        <v>2.437517884212696</v>
       </c>
       <c r="C8">
-        <v>0.362887310488162</v>
+        <v>0.3628873104876504</v>
       </c>
       <c r="D8">
-        <v>0.1957527058293209</v>
+        <v>0.1957527058292072</v>
       </c>
       <c r="E8">
-        <v>0.2995232916024975</v>
+        <v>0.299523291602533</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.5212136800574</v>
+        <v>8.521213680057485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5988773904734757</v>
+        <v>0.5988773904734686</v>
       </c>
       <c r="K8">
-        <v>0.418025572677827</v>
+        <v>0.4180255726778057</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.463622909829894</v>
+        <v>3.463622909830065</v>
       </c>
       <c r="C9">
-        <v>0.525949591357346</v>
+        <v>0.5259495913568912</v>
       </c>
       <c r="D9">
-        <v>0.2738723987970246</v>
+        <v>0.273872398797252</v>
       </c>
       <c r="E9">
         <v>0.4203956274023355</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.56203235849301</v>
+        <v>11.56203235849316</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8566635306232158</v>
+        <v>0.8566635306232442</v>
       </c>
       <c r="K9">
-        <v>0.5919634158109659</v>
+        <v>0.5919634158109233</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.30746460752556</v>
+        <v>4.307464607525731</v>
       </c>
       <c r="C10">
-        <v>0.6627777660817742</v>
+        <v>0.6627777660823995</v>
       </c>
       <c r="D10">
-        <v>0.3367782383140252</v>
+        <v>0.3367782383140536</v>
       </c>
       <c r="E10">
-        <v>0.5182899939529619</v>
+        <v>0.5182899939529833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.00792492782855</v>
+        <v>14.00792492782844</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.069559433837185</v>
+        <v>1.069559433837128</v>
       </c>
       <c r="K10">
         <v>0.7338175962380831</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.721469873426827</v>
+        <v>4.721469873427225</v>
       </c>
       <c r="C11">
-        <v>0.7308735092477434</v>
+        <v>0.7308735092467771</v>
       </c>
       <c r="D11">
-        <v>0.3672340141505259</v>
+        <v>0.367234014150597</v>
       </c>
       <c r="E11">
-        <v>0.5658814968275294</v>
+        <v>0.5658814968274726</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.19187797852777</v>
+        <v>15.1918779785276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.174325721322631</v>
+        <v>1.174325721322546</v>
       </c>
       <c r="K11">
-        <v>0.8031025316453508</v>
+        <v>0.8031025316453793</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>4.883784182129943</v>
       </c>
       <c r="C12">
-        <v>0.7577496147868885</v>
+        <v>0.7577496147871443</v>
       </c>
       <c r="D12">
-        <v>0.3791036785706723</v>
+        <v>0.3791036785707149</v>
       </c>
       <c r="E12">
-        <v>0.5844659949885411</v>
+        <v>0.5844659949885909</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.65331470149732</v>
+        <v>15.65331470149727</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.215458408577447</v>
+        <v>1.215458408577476</v>
       </c>
       <c r="K12">
-        <v>0.8302164324817554</v>
+        <v>0.8302164324817838</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.848557439791819</v>
+        <v>4.848557439791932</v>
       </c>
       <c r="C13">
-        <v>0.7519081179003422</v>
+        <v>0.7519081179008822</v>
       </c>
       <c r="D13">
-        <v>0.3765309845175295</v>
+        <v>0.3765309845170464</v>
       </c>
       <c r="E13">
-        <v>0.5804361227803625</v>
+        <v>0.5804361227804691</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.55329926164245</v>
+        <v>15.55329926164262</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.206528657395538</v>
+        <v>1.206528657395452</v>
       </c>
       <c r="K13">
-        <v>0.8243342506953155</v>
+        <v>0.8243342506953297</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.734704368702069</v>
+        <v>4.734704368702296</v>
       </c>
       <c r="C14">
-        <v>0.7330610892446145</v>
+        <v>0.7330610892438472</v>
       </c>
       <c r="D14">
-        <v>0.3682033030606817</v>
+        <v>0.368203303060497</v>
       </c>
       <c r="E14">
         <v>0.5673983474817987</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.22955891007234</v>
+        <v>15.2295589100728</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.177678289777589</v>
+        <v>1.177678289777674</v>
       </c>
       <c r="K14">
-        <v>0.8053143152526019</v>
+        <v>0.805314315252609</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.665729276274988</v>
+        <v>4.665729276274874</v>
       </c>
       <c r="C15">
-        <v>0.7216673029988669</v>
+        <v>0.7216673029986396</v>
       </c>
       <c r="D15">
-        <v>0.3631486986845118</v>
+        <v>0.3631486986847108</v>
       </c>
       <c r="E15">
-        <v>0.5594898521298362</v>
+        <v>0.5594898521298575</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.160207886596822</v>
+        <v>1.160207886596652</v>
       </c>
       <c r="K15">
-        <v>0.7937850004195042</v>
+        <v>0.793785000419561</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.281110278648043</v>
+        <v>4.281110278647986</v>
       </c>
       <c r="C16">
-        <v>0.6584648988070398</v>
+        <v>0.6584648988071251</v>
       </c>
       <c r="D16">
-        <v>0.3348306292404715</v>
+        <v>0.3348306292400594</v>
       </c>
       <c r="E16">
-        <v>0.515251057318693</v>
+        <v>0.5152510573186788</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.93221146298157</v>
+        <v>13.93221146298134</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.062897470102556</v>
+        <v>1.06289747010257</v>
       </c>
       <c r="K16">
-        <v>0.7294006538038076</v>
+        <v>0.7294006538038857</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.053634341032591</v>
+        <v>4.053634341032023</v>
       </c>
       <c r="C17">
-        <v>0.621346096267132</v>
+        <v>0.6213460962682973</v>
       </c>
       <c r="D17">
-        <v>0.3179750674815125</v>
+        <v>0.3179750674811714</v>
       </c>
       <c r="E17">
-        <v>0.4889725845352899</v>
+        <v>0.488972584535361</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.27693014599686</v>
+        <v>13.27693014599697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.005430199163982</v>
+        <v>1.005430199164095</v>
       </c>
       <c r="K17">
-        <v>0.6912421037617023</v>
+        <v>0.6912421037617378</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.925544228252647</v>
+        <v>3.925544228252306</v>
       </c>
       <c r="C18">
-        <v>0.6005288000855558</v>
+        <v>0.600528800085641</v>
       </c>
       <c r="D18">
-        <v>0.3084480672442993</v>
+        <v>0.3084480672439582</v>
       </c>
       <c r="E18">
-        <v>0.4741368103848203</v>
+        <v>0.4741368103848416</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.90653296943006</v>
+        <v>12.90653296942989</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9730982559294858</v>
+        <v>0.9730982559295143</v>
       </c>
       <c r="K18">
-        <v>0.6697276294944885</v>
+        <v>0.6697276294944672</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.882615648296166</v>
+        <v>3.88261564829628</v>
       </c>
       <c r="C19">
-        <v>0.5935654352831534</v>
+        <v>0.5935654352827271</v>
       </c>
       <c r="D19">
-        <v>0.3052493276893671</v>
+        <v>0.3052493276894097</v>
       </c>
       <c r="E19">
-        <v>0.4691583665619774</v>
+        <v>0.4691583665621266</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.78216520463531</v>
+        <v>12.78216520463522</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9622668041812972</v>
+        <v>0.9622668041812403</v>
       </c>
       <c r="K19">
-        <v>0.6625125758339649</v>
+        <v>0.6625125758338868</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.077557464906533</v>
+        <v>4.077557464906761</v>
       </c>
       <c r="C20">
-        <v>0.6252407781064448</v>
+        <v>0.6252407781059901</v>
       </c>
       <c r="D20">
-        <v>0.3197515353393783</v>
+        <v>0.3197515353391083</v>
       </c>
       <c r="E20">
         <v>0.4917403248364423</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.34599471974968</v>
+        <v>13.34599471974937</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.011470953595847</v>
+        <v>1.011470953595833</v>
       </c>
       <c r="K20">
-        <v>0.6952580701208078</v>
+        <v>0.6952580701208859</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.767984048741425</v>
+        <v>4.767984048741539</v>
       </c>
       <c r="C21">
-        <v>0.7385649862444552</v>
+        <v>0.7385649862449952</v>
       </c>
       <c r="D21">
-        <v>0.3706395284438742</v>
+        <v>0.370639528443391</v>
       </c>
       <c r="E21">
-        <v>0.5712114315262653</v>
+        <v>0.5712114315262085</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.3242670424309</v>
+        <v>15.32426704243107</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.186109681203092</v>
+        <v>1.186109681203106</v>
       </c>
       <c r="K21">
-        <v>0.8108752969618109</v>
+        <v>0.8108752969616688</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.252352607291357</v>
+        <v>5.252352607291982</v>
       </c>
       <c r="C22">
-        <v>0.8191571867128573</v>
+        <v>0.8191571867128005</v>
       </c>
       <c r="D22">
-        <v>0.405910484892047</v>
+        <v>0.4059104848922601</v>
       </c>
       <c r="E22">
-        <v>0.6265156181981766</v>
+        <v>0.6265156181981411</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.69551093672135</v>
+        <v>16.69551093672163</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.308982223213519</v>
+        <v>1.30898222321359</v>
       </c>
       <c r="K22">
-        <v>0.8916867274161575</v>
+        <v>0.8916867274161007</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.990305152983694</v>
+        <v>4.990305152983581</v>
       </c>
       <c r="C23">
-        <v>0.7754427648696378</v>
+        <v>0.7754427648696094</v>
       </c>
       <c r="D23">
-        <v>0.3868718952632975</v>
+        <v>0.386871895263198</v>
       </c>
       <c r="E23">
-        <v>0.5966401432817392</v>
+        <v>0.5966401432817818</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.95531521302968</v>
+        <v>15.95531521302985</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.242470295596377</v>
+        <v>1.24247029559632</v>
       </c>
       <c r="K23">
-        <v>0.8479957779997278</v>
+        <v>0.8479957779996923</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.066733531420482</v>
+        <v>4.066733531420311</v>
       </c>
       <c r="C24">
-        <v>0.6234783816959464</v>
+        <v>0.6234783816954064</v>
       </c>
       <c r="D24">
-        <v>0.3189478901533818</v>
+        <v>0.3189478901533391</v>
       </c>
       <c r="E24">
-        <v>0.4904881907662784</v>
+        <v>0.4904881907663139</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.31475110400947</v>
+        <v>13.31475110400936</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.008737750010255</v>
+        <v>1.008737750010297</v>
       </c>
       <c r="K24">
-        <v>0.6934411467688264</v>
+        <v>0.6934411467687625</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.17318427340939</v>
+        <v>3.173184273409788</v>
       </c>
       <c r="C25">
-        <v>0.4794415688072604</v>
+        <v>0.4794415688077436</v>
       </c>
       <c r="D25">
-        <v>0.2519511487747792</v>
+        <v>0.2519511487749213</v>
       </c>
       <c r="E25">
-        <v>0.3864028871610685</v>
+        <v>0.3864028871611325</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.7093005586897</v>
+        <v>10.70930055868993</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.78358021009727</v>
+        <v>0.783580210097341</v>
       </c>
       <c r="K25">
-        <v>0.5429122066849672</v>
+        <v>0.5429122066849601</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.571842662123117</v>
+        <v>2.571095234332631</v>
       </c>
       <c r="C2">
-        <v>0.3840420001248219</v>
+        <v>0.3837255074720929</v>
       </c>
       <c r="D2">
-        <v>0.2060899320470355</v>
+        <v>0.2060590514584248</v>
       </c>
       <c r="E2">
-        <v>0.315476450701027</v>
+        <v>0.3154352987598941</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923982607768238</v>
+        <v>2.916588499690704</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.957229358259383</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6325598292194101</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.44090593544</v>
+        <v>0.6323185802718569</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4408249552522747</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.188365629388841</v>
+        <v>2.187896250506355</v>
       </c>
       <c r="C3">
-        <v>0.32378675429905</v>
+        <v>0.3235664234184696</v>
       </c>
       <c r="D3">
-        <v>0.1764817631226663</v>
+        <v>0.1764613952794036</v>
       </c>
       <c r="E3">
-        <v>0.2698145254821043</v>
+        <v>0.2697865687103658</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.769878158836462</v>
+        <v>2.531282263725046</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.196111999619745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5364481433843977</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3754791956967978</v>
+        <v>0.5362915291316526</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3754263572494239</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.961910657058382</v>
+        <v>1.96157771263691</v>
       </c>
       <c r="C4">
-        <v>0.2883924279116599</v>
+        <v>0.2882223661609373</v>
       </c>
       <c r="D4">
-        <v>0.1588503074323171</v>
+        <v>0.1588351507286774</v>
       </c>
       <c r="E4">
-        <v>0.2426678120208834</v>
+        <v>0.2426464523698826</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.08178105977376</v>
+        <v>2.30149704478373</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.742351965417157</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4797552576435038</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3366738430433074</v>
+        <v>0.4796409167225164</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3366349065510263</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871532209974816</v>
+        <v>1.871247821845259</v>
       </c>
       <c r="C5">
-        <v>0.2743012872732749</v>
+        <v>0.2741499148918507</v>
       </c>
       <c r="D5">
-        <v>0.1517806552316046</v>
+        <v>0.1517673759036313</v>
       </c>
       <c r="E5">
-        <v>0.2317917101256199</v>
+        <v>0.2317727496712578</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.805652497334677</v>
+        <v>2.209271958551341</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.560270356445045</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.457141093065573</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3211462987531135</v>
+        <v>0.4570419883887027</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.321112355029527</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856630359530101</v>
+        <v>1.856353649135087</v>
       </c>
       <c r="C6">
-        <v>0.2719796661729248</v>
+        <v>0.2718312992135168</v>
       </c>
       <c r="D6">
-        <v>0.1506131083741309</v>
+        <v>0.150600127590252</v>
       </c>
       <c r="E6">
-        <v>0.2299960043770994</v>
+        <v>0.2299774270637585</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.760036221417721</v>
+        <v>2.194035614025836</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.530191164818063</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4534130249397279</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3185836961391146</v>
+        <v>0.4533163414210932</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3185505452999564</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960684511874064</v>
+        <v>1.960352248952375</v>
       </c>
       <c r="C7">
-        <v>0.2882011300739151</v>
+        <v>0.2880313271597146</v>
       </c>
       <c r="D7">
-        <v>0.1587545242881276</v>
+        <v>0.1587393938232395</v>
       </c>
       <c r="E7">
-        <v>0.2425204240101237</v>
+        <v>0.2424990977834511</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.07804086086108</v>
+        <v>2.300247898835408</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.739885606667031</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4794484120208651</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3364633458033666</v>
+        <v>0.4793342841140387</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3364244791621047</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437517884212696</v>
+        <v>2.436874504075263</v>
       </c>
       <c r="C8">
-        <v>0.3628873104876504</v>
+        <v>0.3626060701171241</v>
       </c>
       <c r="D8">
-        <v>0.1957527058292072</v>
+        <v>0.1957257531725958</v>
       </c>
       <c r="E8">
-        <v>0.299523291602533</v>
+        <v>0.2994870625412247</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.521213680057485</v>
+        <v>2.782134248136856</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.691602549654249</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5988773904734686</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4180255726778057</v>
+        <v>0.5986676346656452</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4179551164926991</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.463622909830065</v>
+        <v>3.462003379019166</v>
       </c>
       <c r="C9">
-        <v>0.5259495913568912</v>
+        <v>0.5253559869198057</v>
       </c>
       <c r="D9">
-        <v>0.273872398797252</v>
+        <v>0.2738083479337661</v>
       </c>
       <c r="E9">
-        <v>0.4203956274023355</v>
+        <v>0.4203126773974901</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.56203235849316</v>
+        <v>3.796931532165019</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.697089928198864</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8566635306232442</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5919634158109233</v>
+        <v>0.8561628320095025</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5917934084515295</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.307464607525731</v>
+        <v>4.30471984845218</v>
       </c>
       <c r="C10">
-        <v>0.6627777660823995</v>
+        <v>0.6618503284321093</v>
       </c>
       <c r="D10">
-        <v>0.3367782383140536</v>
+        <v>0.3366702853722643</v>
       </c>
       <c r="E10">
-        <v>0.5182899939529833</v>
+        <v>0.518150522993281</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.00792492782844</v>
+        <v>4.612734755142839</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.310158794824758</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.069559433837128</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7338175962380831</v>
+        <v>1.068729932089568</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7335295671177064</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.721469873427225</v>
+        <v>4.718058590040755</v>
       </c>
       <c r="C11">
-        <v>0.7308735092467771</v>
+        <v>0.7297549250746727</v>
       </c>
       <c r="D11">
-        <v>0.367234014150597</v>
+        <v>0.367099476258943</v>
       </c>
       <c r="E11">
-        <v>0.5658814968274726</v>
+        <v>0.5657071207699289</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.1918779785276</v>
+        <v>5.007496981535155</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.09090528550712</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.174325721322546</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8031025316453793</v>
+        <v>1.173303150489403</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8027429250131632</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.883784182129943</v>
+        <v>4.88008968617504</v>
       </c>
       <c r="C12">
-        <v>0.7577496147871443</v>
+        <v>0.7565508607885647</v>
       </c>
       <c r="D12">
-        <v>0.3791036785707149</v>
+        <v>0.3789577250081777</v>
       </c>
       <c r="E12">
-        <v>0.5844659949885909</v>
+        <v>0.58427648508966</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.65331470149727</v>
+        <v>5.16132910656961</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.39517715504894</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.215458408577476</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8302164324817838</v>
+        <v>1.214354074695819</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8298260604835335</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.848557439791932</v>
+        <v>4.844925485532826</v>
       </c>
       <c r="C13">
-        <v>0.7519081179008822</v>
+        <v>0.7507270199651259</v>
       </c>
       <c r="D13">
-        <v>0.3765309845170464</v>
+        <v>0.3763875577563027</v>
       </c>
       <c r="E13">
-        <v>0.5804361227804691</v>
+        <v>0.5802499699374195</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.55329926164262</v>
+        <v>5.127987439751223</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.32922782912578</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.206528657395452</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8243342506953297</v>
+        <v>1.205442366679932</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8239506900795206</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.734704368702296</v>
+        <v>4.731270464925785</v>
       </c>
       <c r="C14">
-        <v>0.7330610892438472</v>
+        <v>0.7319360809239015</v>
       </c>
       <c r="D14">
-        <v>0.368203303060497</v>
+        <v>0.3680678559272934</v>
       </c>
       <c r="E14">
-        <v>0.5673983474817987</v>
+        <v>0.5672227691478327</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.2295589100728</v>
+        <v>5.020059411038346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.11575254809264</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.177678289777674</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.805314315252609</v>
+        <v>1.17664918299235</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8049522588866935</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.665729276274874</v>
+        <v>4.662412355730737</v>
       </c>
       <c r="C15">
-        <v>0.7216673029986396</v>
+        <v>0.72057555880059</v>
       </c>
       <c r="D15">
-        <v>0.3631486986847108</v>
+        <v>0.3630179489376957</v>
       </c>
       <c r="E15">
-        <v>0.5594898521298575</v>
+        <v>0.559320479189708</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.0330627281308</v>
+        <v>4.954548668444829</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.986179807202063</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.160207886596652</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.793785000419561</v>
+        <v>1.159212591774974</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.7934355987920227</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.281110278647986</v>
+        <v>4.278405309747484</v>
       </c>
       <c r="C16">
-        <v>0.6584648988071251</v>
+        <v>0.6575489984166722</v>
       </c>
       <c r="D16">
-        <v>0.3348306292400594</v>
+        <v>0.3347242503116092</v>
       </c>
       <c r="E16">
-        <v>0.5152510573186788</v>
+        <v>0.5151136375042356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.93221146298134</v>
+        <v>4.587486882960775</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.260228282097614</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.06289747010257</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7294006538038857</v>
+        <v>1.062079526916534</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7291168597367488</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.053634341032023</v>
+        <v>4.051260076614028</v>
       </c>
       <c r="C17">
-        <v>0.6213460962682973</v>
+        <v>0.6205267328641355</v>
       </c>
       <c r="D17">
-        <v>0.3179750674811714</v>
+        <v>0.3178817109750582</v>
       </c>
       <c r="E17">
-        <v>0.488972584535361</v>
+        <v>0.4888520655560527</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.27693014599697</v>
+        <v>4.368957994706903</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.828083626910654</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.005430199164095</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6912421037617378</v>
+        <v>1.004708488663724</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6909933367978951</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.925544228252306</v>
+        <v>3.923346286802825</v>
       </c>
       <c r="C18">
-        <v>0.600528800085641</v>
+        <v>0.5997614302553416</v>
       </c>
       <c r="D18">
-        <v>0.3084480672439582</v>
+        <v>0.3083616095530459</v>
       </c>
       <c r="E18">
-        <v>0.4741368103848416</v>
+        <v>0.4740251940093216</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.90653296942989</v>
+        <v>4.245422944604513</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.583808313273579</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9730982559295143</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6697276294944672</v>
+        <v>0.9724279882925657</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6694974110154419</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.88261564829628</v>
+        <v>3.880475230119657</v>
       </c>
       <c r="C19">
-        <v>0.5935654352827271</v>
+        <v>0.5928151153025851</v>
       </c>
       <c r="D19">
-        <v>0.3052493276894097</v>
+        <v>0.3051651138367646</v>
       </c>
       <c r="E19">
-        <v>0.4691583665621266</v>
+        <v>0.4690496380432023</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.78216520463522</v>
+        <v>4.203941822834793</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.501787482603874</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9622668041812403</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6625125758338868</v>
+        <v>0.9616133415499633</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6622883891709108</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.077557464906761</v>
+        <v>4.075149485402676</v>
       </c>
       <c r="C20">
-        <v>0.6252407781059901</v>
+        <v>0.62441151660326</v>
       </c>
       <c r="D20">
-        <v>0.3197515353391083</v>
+        <v>0.3196568561394741</v>
       </c>
       <c r="E20">
-        <v>0.4917403248364423</v>
+        <v>0.4916180949209163</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.34599471974937</v>
+        <v>4.39199150065167</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.873630967813682</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.011470953595833</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6952580701208859</v>
+        <v>1.010739417789978</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6950057463140382</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.767984048741539</v>
+        <v>4.76449289548259</v>
       </c>
       <c r="C21">
-        <v>0.7385649862449952</v>
+        <v>0.7374237358287701</v>
       </c>
       <c r="D21">
-        <v>0.370639528443391</v>
+        <v>0.3705017781435487</v>
       </c>
       <c r="E21">
-        <v>0.5712114315262085</v>
+        <v>0.5710328053185805</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.32426704243107</v>
+        <v>5.05163372599884</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.17820391818401</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.186109681203106</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8108752969616688</v>
+        <v>1.185064037064464</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8105070347415904</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.252352607291982</v>
+        <v>5.247966921248917</v>
       </c>
       <c r="C22">
-        <v>0.8191571867128005</v>
+        <v>0.8177649172886845</v>
       </c>
       <c r="D22">
-        <v>0.4059104848922601</v>
+        <v>0.405736393329974</v>
       </c>
       <c r="E22">
-        <v>0.6265156181981411</v>
+        <v>0.626288457151027</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.69551093672163</v>
+        <v>5.5087237139021</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.08235755774319</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.30898222321359</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8916867274161007</v>
+        <v>1.307678907118543</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.8912204399474319</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.990305152983581</v>
+        <v>4.986417856111416</v>
       </c>
       <c r="C23">
-        <v>0.7754427648696094</v>
+        <v>0.7741897425181037</v>
       </c>
       <c r="D23">
-        <v>0.386871895263198</v>
+        <v>0.3867181316399524</v>
       </c>
       <c r="E23">
-        <v>0.5966401432817818</v>
+        <v>0.596440231538665</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.95531521302985</v>
+        <v>5.262001778438957</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.59431031396855</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.24247029559632</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8479957779996923</v>
+        <v>1.241310381302952</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.8475843468140098</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.066733531420311</v>
+        <v>4.064340836909025</v>
       </c>
       <c r="C24">
-        <v>0.6234783816954064</v>
+        <v>0.6226536058997567</v>
       </c>
       <c r="D24">
-        <v>0.3189478901533391</v>
+        <v>0.3188538107469583</v>
       </c>
       <c r="E24">
-        <v>0.4904881907663139</v>
+        <v>0.4903667368596274</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.31475110400936</v>
+        <v>4.381571578610789</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.853026158570259</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.008737750010297</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6934411467687625</v>
+        <v>1.008010668152693</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6931904358855974</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.173184273409788</v>
+        <v>3.17188359894925</v>
       </c>
       <c r="C25">
-        <v>0.4794415688077436</v>
+        <v>0.4789465118554119</v>
       </c>
       <c r="D25">
-        <v>0.2519511487749213</v>
+        <v>0.2518993025590817</v>
       </c>
       <c r="E25">
-        <v>0.3864028871611325</v>
+        <v>0.3863353933083147</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.70930055868993</v>
+        <v>3.512420548229812</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.134688434525941</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.783580210097341</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5429122066849601</v>
+        <v>0.7831736834743594</v>
       </c>
       <c r="L25">
+        <v>0.5427749748206097</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.571095234332631</v>
+        <v>6.620506404061359</v>
       </c>
       <c r="C2">
-        <v>0.3837255074720929</v>
+        <v>2.081439599945725</v>
       </c>
       <c r="D2">
-        <v>0.2060590514584248</v>
+        <v>0.2745476593208735</v>
       </c>
       <c r="E2">
-        <v>0.3154352987598941</v>
+        <v>0.05802824565720321</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.916588499690704</v>
+        <v>0.0008159921919389771</v>
       </c>
       <c r="H2">
-        <v>5.957229358259383</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01083661674944203</v>
       </c>
       <c r="K2">
-        <v>0.6323185802718569</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4408249552522747</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.695099542424146</v>
+      </c>
+      <c r="N2">
+        <v>4.338908718249229</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.187896250506355</v>
+        <v>5.758540420689769</v>
       </c>
       <c r="C3">
-        <v>0.3235664234184696</v>
+        <v>1.805753821610381</v>
       </c>
       <c r="D3">
-        <v>0.1764613952794036</v>
+        <v>0.2535092885656383</v>
       </c>
       <c r="E3">
-        <v>0.2697865687103658</v>
+        <v>0.05537046660857214</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.531282263725046</v>
+        <v>0.0008328332556465919</v>
       </c>
       <c r="H3">
-        <v>5.196111999619745</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01100908261973554</v>
       </c>
       <c r="K3">
-        <v>0.5362915291316526</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3754263572494239</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.486712979585278</v>
+      </c>
+      <c r="N3">
+        <v>4.081373088860943</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.96157771263691</v>
+        <v>5.250484629061077</v>
       </c>
       <c r="C4">
-        <v>0.2882223661609373</v>
+        <v>1.643521981898346</v>
       </c>
       <c r="D4">
-        <v>0.1588351507286774</v>
+        <v>0.2413484504048</v>
       </c>
       <c r="E4">
-        <v>0.2426464523698826</v>
+        <v>0.05387048033513153</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.30149704478373</v>
+        <v>0.0008432941825684665</v>
       </c>
       <c r="H4">
-        <v>4.742351965417157</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01111958526461532</v>
       </c>
       <c r="K4">
-        <v>0.4796409167225164</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3366349065510263</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.364221723026901</v>
+      </c>
+      <c r="N4">
+        <v>3.929170575162715</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871247821845259</v>
+        <v>5.047959029794242</v>
       </c>
       <c r="C5">
-        <v>0.2741499148918507</v>
+        <v>1.578904960920966</v>
       </c>
       <c r="D5">
-        <v>0.1517673759036313</v>
+        <v>0.2365595328483749</v>
       </c>
       <c r="E5">
-        <v>0.2317727496712578</v>
+        <v>0.05328888632100259</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.209271958551341</v>
+        <v>0.000847595854952965</v>
       </c>
       <c r="H5">
-        <v>4.560270356445045</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0111657925937978</v>
       </c>
       <c r="K5">
-        <v>0.4570419883887027</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.321112355029527</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.315473460344123</v>
+      </c>
+      <c r="N5">
+        <v>3.868419838995806</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856353649135087</v>
+        <v>5.014580609961968</v>
       </c>
       <c r="C6">
-        <v>0.2718312992135168</v>
+        <v>1.568258262388269</v>
       </c>
       <c r="D6">
-        <v>0.150600127590252</v>
+        <v>0.2357737821017309</v>
       </c>
       <c r="E6">
-        <v>0.2299774270637585</v>
+        <v>0.05319401185041528</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.194035614025836</v>
+        <v>0.0008483127102483142</v>
       </c>
       <c r="H6">
-        <v>4.530191164818063</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01117353686343581</v>
       </c>
       <c r="K6">
-        <v>0.4533163414210932</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3185505452999564</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.307443968015761</v>
+      </c>
+      <c r="N6">
+        <v>3.858403344778537</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960352248952375</v>
+        <v>5.247736026314385</v>
       </c>
       <c r="C7">
-        <v>0.2880313271597146</v>
+        <v>1.642644821509805</v>
       </c>
       <c r="D7">
-        <v>0.1587393938232395</v>
+        <v>0.2412832189793619</v>
       </c>
       <c r="E7">
-        <v>0.2424990977834511</v>
+        <v>0.05386252090915455</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.300247898835408</v>
+        <v>0.000843352029045144</v>
       </c>
       <c r="H7">
-        <v>4.739885606667031</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01112020364538058</v>
       </c>
       <c r="K7">
-        <v>0.4793342841140387</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3364244791621047</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.363559806758289</v>
+      </c>
+      <c r="N7">
+        <v>3.928346379580489</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.436874504075263</v>
+        <v>6.31836819945255</v>
       </c>
       <c r="C8">
-        <v>0.3626060701171241</v>
+        <v>1.984741441654194</v>
       </c>
       <c r="D8">
-        <v>0.1957257531725958</v>
+        <v>0.2671211827760374</v>
       </c>
       <c r="E8">
-        <v>0.2994870625412247</v>
+        <v>0.0570821827914969</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.782134248136856</v>
+        <v>0.0008217795051393815</v>
       </c>
       <c r="H8">
-        <v>5.691602549654249</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01089513754243931</v>
       </c>
       <c r="K8">
-        <v>0.5986676346656452</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4179551164926991</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.621981356514908</v>
+      </c>
+      <c r="N8">
+        <v>4.248739639166644</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.462003379019166</v>
+        <v>8.631119897587837</v>
       </c>
       <c r="C9">
-        <v>0.5253559869198057</v>
+        <v>2.72673690014841</v>
       </c>
       <c r="D9">
-        <v>0.2738083479337661</v>
+        <v>0.3250933166190464</v>
       </c>
       <c r="E9">
-        <v>0.4203126773974901</v>
+        <v>0.06463557541215792</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.796931532165019</v>
+        <v>0.0007799666589160338</v>
       </c>
       <c r="H9">
-        <v>7.697089928198864</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01048952261631619</v>
       </c>
       <c r="K9">
-        <v>0.8561628320095025</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5917934084515295</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2.183346219949385</v>
+      </c>
+      <c r="N9">
+        <v>4.935905263934444</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.30471984845218</v>
+        <v>10.54076216309545</v>
       </c>
       <c r="C10">
-        <v>0.6618503284321093</v>
+        <v>3.342649811216972</v>
       </c>
       <c r="D10">
-        <v>0.3366702853722643</v>
+        <v>0.3744567977631306</v>
       </c>
       <c r="E10">
-        <v>0.518150522993281</v>
+        <v>0.07128530743426964</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.612734755142839</v>
+        <v>0.0007487189620311944</v>
       </c>
       <c r="H10">
-        <v>9.310158794824758</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01021220208722173</v>
       </c>
       <c r="K10">
-        <v>1.068729932089568</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7335295671177064</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.64923337628862</v>
+      </c>
+      <c r="N10">
+        <v>5.497646185530186</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.718058590040755</v>
+        <v>11.48056453261802</v>
       </c>
       <c r="C11">
-        <v>0.7297549250746727</v>
+        <v>3.646894171663405</v>
       </c>
       <c r="D11">
-        <v>0.367099476258943</v>
+        <v>0.3991141949353789</v>
       </c>
       <c r="E11">
-        <v>0.5657071207699289</v>
+        <v>0.07465781577840147</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.007496981535155</v>
+        <v>0.0007341292096964352</v>
       </c>
       <c r="H11">
-        <v>10.09090528550712</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01009033998452491</v>
       </c>
       <c r="K11">
-        <v>1.173303150489403</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8027429250131632</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.879146467903524</v>
+      </c>
+      <c r="N11">
+        <v>5.77209091415989</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.88008968617504</v>
+        <v>11.84963964467079</v>
       </c>
       <c r="C12">
-        <v>0.7565508607885647</v>
+        <v>3.76658672809242</v>
       </c>
       <c r="D12">
-        <v>0.3789577250081777</v>
+        <v>0.4088534785677211</v>
       </c>
       <c r="E12">
-        <v>0.58427648508966</v>
+        <v>0.07599756789752732</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.16132910656961</v>
+        <v>0.0007285201230903016</v>
       </c>
       <c r="H12">
-        <v>10.39517715504894</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01004480412480291</v>
       </c>
       <c r="K12">
-        <v>1.214354074695819</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8298260604835335</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.969540515122901</v>
+      </c>
+      <c r="N12">
+        <v>5.8794953552366</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.844925485532826</v>
+        <v>11.76950813403835</v>
       </c>
       <c r="C13">
-        <v>0.7507270199651259</v>
+        <v>3.740589505132277</v>
       </c>
       <c r="D13">
-        <v>0.3763875577563027</v>
+        <v>0.4067364034875851</v>
       </c>
       <c r="E13">
-        <v>0.5802499699374195</v>
+        <v>0.07570599475728912</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.127987439751223</v>
+        <v>0.0007297324791715005</v>
       </c>
       <c r="H13">
-        <v>10.32922782912578</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01005458389615921</v>
       </c>
       <c r="K13">
-        <v>1.205442366679932</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8239506900795206</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.949909858868338</v>
+      </c>
+      <c r="N13">
+        <v>5.856194453929504</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.731270464925785</v>
+        <v>11.51064369966525</v>
       </c>
       <c r="C14">
-        <v>0.7319360809239015</v>
+        <v>3.656644466734292</v>
       </c>
       <c r="D14">
-        <v>0.3680678559272934</v>
+        <v>0.3999068047841945</v>
       </c>
       <c r="E14">
-        <v>0.5672227691478327</v>
+        <v>0.07476669489050636</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.020059411038346</v>
+        <v>0.0007336696447271079</v>
       </c>
       <c r="H14">
-        <v>10.11575254809264</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01008658147689889</v>
       </c>
       <c r="K14">
-        <v>1.17664918299235</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8049522588866935</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.886511339889097</v>
+      </c>
+      <c r="N14">
+        <v>5.780852216597907</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.662412355730737</v>
+        <v>11.35390421130614</v>
       </c>
       <c r="C15">
-        <v>0.72057555880059</v>
+        <v>3.605845384154293</v>
       </c>
       <c r="D15">
-        <v>0.3630179489376957</v>
+        <v>0.3957788431636544</v>
       </c>
       <c r="E15">
-        <v>0.559320479189708</v>
+        <v>0.07419995205127705</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.954548668444829</v>
+        <v>0.0007360692318535672</v>
       </c>
       <c r="H15">
-        <v>9.986179807202063</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0101062604554194</v>
       </c>
       <c r="K15">
-        <v>1.159212591774974</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7934355987920227</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.848137940448098</v>
+      </c>
+      <c r="N15">
+        <v>5.73518250610357</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.278405309747484</v>
+        <v>10.48100770040719</v>
       </c>
       <c r="C16">
-        <v>0.6575489984166722</v>
+        <v>3.323331079863976</v>
       </c>
       <c r="D16">
-        <v>0.3347242503116092</v>
+        <v>0.3728963971886117</v>
       </c>
       <c r="E16">
-        <v>0.5151136375042356</v>
+        <v>0.07107289574507547</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.587486882960775</v>
+        <v>0.0007496625074972326</v>
       </c>
       <c r="H16">
-        <v>9.260228282097614</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01022025162784335</v>
       </c>
       <c r="K16">
-        <v>1.062079526916534</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7291168597367488</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.634628347468649</v>
+      </c>
+      <c r="N16">
+        <v>5.480150784136583</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.051260076614028</v>
+        <v>9.96556298012365</v>
       </c>
       <c r="C17">
-        <v>0.6205267328641355</v>
+        <v>3.15681250202158</v>
       </c>
       <c r="D17">
-        <v>0.3178817109750582</v>
+        <v>0.3594756409744946</v>
       </c>
       <c r="E17">
-        <v>0.4888520655560527</v>
+        <v>0.0692514198752896</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.368957994706903</v>
+        <v>0.0007578866901528555</v>
       </c>
       <c r="H17">
-        <v>8.828083626910654</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.01029127307128697</v>
       </c>
       <c r="K17">
-        <v>1.004708488663724</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6909933367978951</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.508713745894298</v>
+      </c>
+      <c r="N17">
+        <v>5.329011426146906</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.923346286802825</v>
+        <v>9.675563675299259</v>
       </c>
       <c r="C18">
-        <v>0.5997614302553416</v>
+        <v>3.063224046887228</v>
       </c>
       <c r="D18">
-        <v>0.3083616095530459</v>
+        <v>0.3519572500482866</v>
       </c>
       <c r="E18">
-        <v>0.4740251940093216</v>
+        <v>0.06823552072237504</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.245422944604513</v>
+        <v>0.0007625839819431885</v>
       </c>
       <c r="H18">
-        <v>8.583808313273579</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01033252672367801</v>
       </c>
       <c r="K18">
-        <v>0.9724279882925657</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6694974110154419</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.437927687719338</v>
+      </c>
+      <c r="N18">
+        <v>5.243803235971427</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.880475230119657</v>
+        <v>9.578410049321064</v>
       </c>
       <c r="C19">
-        <v>0.5928151153025851</v>
+        <v>3.031886335990293</v>
       </c>
       <c r="D19">
-        <v>0.3051651138367646</v>
+        <v>0.349443956903599</v>
       </c>
       <c r="E19">
-        <v>0.4690496380432023</v>
+        <v>0.06789668450043962</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.203941822834793</v>
+        <v>0.0007641695088926641</v>
       </c>
       <c r="H19">
-        <v>8.501787482603874</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01034656425377722</v>
       </c>
       <c r="K19">
-        <v>0.9616133415499633</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6622883891709108</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.414222712486819</v>
+      </c>
+      <c r="N19">
+        <v>5.215229586440898</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.075149485402676</v>
+        <v>10.01974461416216</v>
       </c>
       <c r="C20">
-        <v>0.62441151660326</v>
+        <v>3.174305777525774</v>
       </c>
       <c r="D20">
-        <v>0.3196568561394741</v>
+        <v>0.3608829773514657</v>
       </c>
       <c r="E20">
-        <v>0.4916180949209163</v>
+        <v>0.06944195182004975</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.39199150065167</v>
+        <v>0.0007570148216694558</v>
       </c>
       <c r="H20">
-        <v>8.873630967813682</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01028367098739302</v>
       </c>
       <c r="K20">
-        <v>1.010739417789978</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6950057463140382</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.521943502486948</v>
+      </c>
+      <c r="N20">
+        <v>5.344917346173418</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.76449289548259</v>
+        <v>11.58629193074603</v>
       </c>
       <c r="C21">
-        <v>0.7374237358287701</v>
+        <v>3.681169695766073</v>
       </c>
       <c r="D21">
-        <v>0.3705017781435487</v>
+        <v>0.4019010918850086</v>
       </c>
       <c r="E21">
-        <v>0.5710328053185805</v>
+        <v>0.07504076794202774</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.05163372599884</v>
+        <v>0.0007325157816728093</v>
       </c>
       <c r="H21">
-        <v>10.17820391818401</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01007716642956069</v>
       </c>
       <c r="K21">
-        <v>1.185064037064464</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8105070347415904</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.905035461672043</v>
+      </c>
+      <c r="N21">
+        <v>5.802880399008643</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.247966921248917</v>
+        <v>12.68918479443846</v>
       </c>
       <c r="C22">
-        <v>0.8177649172886845</v>
+        <v>4.039308397068567</v>
       </c>
       <c r="D22">
-        <v>0.405736393329974</v>
+        <v>0.4311146688283429</v>
       </c>
       <c r="E22">
-        <v>0.626288457151027</v>
+        <v>0.07907436954099012</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.5087237139021</v>
+        <v>0.0007159909303320674</v>
       </c>
       <c r="H22">
-        <v>11.08235755774319</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.009945771122710667</v>
       </c>
       <c r="K22">
-        <v>1.307678907118543</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8912204399474319</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3.175368698723901</v>
+      </c>
+      <c r="N22">
+        <v>6.123009369180522</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.986417856111416</v>
+        <v>12.09205861258215</v>
       </c>
       <c r="C23">
-        <v>0.7741897425181037</v>
+        <v>3.845270034141777</v>
       </c>
       <c r="D23">
-        <v>0.3867181316399524</v>
+        <v>0.4152665343718667</v>
       </c>
       <c r="E23">
-        <v>0.596440231538665</v>
+        <v>0.07688193441546431</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.262001778438957</v>
+        <v>0.000724870368531509</v>
       </c>
       <c r="H23">
-        <v>10.59431031396855</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0100155713010972</v>
       </c>
       <c r="K23">
-        <v>1.241310381302952</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8475843468140098</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3.028944440454637</v>
+      </c>
+      <c r="N23">
+        <v>5.949925111625134</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.064340836909025</v>
+        <v>9.995229569924504</v>
       </c>
       <c r="C24">
-        <v>0.6226536058997567</v>
+        <v>3.166390457757416</v>
       </c>
       <c r="D24">
-        <v>0.3188538107469583</v>
+        <v>0.3602461118257736</v>
       </c>
       <c r="E24">
-        <v>0.4903667368596274</v>
+        <v>0.0693557157592366</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.381571578610789</v>
+        <v>0.000757409087616916</v>
       </c>
       <c r="H24">
-        <v>8.853026158570259</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01028710657261644</v>
       </c>
       <c r="K24">
-        <v>1.008010668152693</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6931904358855974</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.515957386404878</v>
+      </c>
+      <c r="N24">
+        <v>5.337721088760304</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.17188359894925</v>
+        <v>7.975451955103665</v>
       </c>
       <c r="C25">
-        <v>0.4789465118554119</v>
+        <v>2.515952863342648</v>
       </c>
       <c r="D25">
-        <v>0.2518993025590817</v>
+        <v>0.3084215173746827</v>
       </c>
       <c r="E25">
-        <v>0.3863353933083147</v>
+        <v>0.06242872756311968</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.512420548229812</v>
+        <v>0.0007912995075170792</v>
       </c>
       <c r="H25">
-        <v>7.134688434525941</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.010595543299039</v>
       </c>
       <c r="K25">
-        <v>0.7831736834743594</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5427749748206097</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>2.023838683245458</v>
+      </c>
+      <c r="N25">
+        <v>4.741824211262042</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.620506404061359</v>
+        <v>3.240790793297947</v>
       </c>
       <c r="C2">
-        <v>2.081439599945725</v>
+        <v>0.8483621860798394</v>
       </c>
       <c r="D2">
-        <v>0.2745476593208735</v>
+        <v>0.2077818980883137</v>
       </c>
       <c r="E2">
-        <v>0.05802824565720321</v>
+        <v>0.1584971306181728</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008159921919389771</v>
+        <v>1.760337092322033</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9515690543413484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01083661674944203</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.695099542424146</v>
+        <v>1.127213371124647</v>
       </c>
       <c r="N2">
-        <v>4.338908718249229</v>
+        <v>0.6821578998649329</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.758540420689769</v>
+        <v>2.793061943562805</v>
       </c>
       <c r="C3">
-        <v>1.805753821610381</v>
+        <v>0.7325157249365475</v>
       </c>
       <c r="D3">
-        <v>0.2535092885656383</v>
+        <v>0.1790876106254018</v>
       </c>
       <c r="E3">
-        <v>0.05537046660857214</v>
+        <v>0.1376561056444565</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008328332556465919</v>
+        <v>1.549814686880552</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8617797563223917</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01100908261973554</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.486712979585278</v>
+        <v>0.9702407339127532</v>
       </c>
       <c r="N3">
-        <v>4.081373088860943</v>
+        <v>0.7209288762339909</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.250484629061077</v>
+        <v>2.522111463504871</v>
       </c>
       <c r="C4">
-        <v>1.643521981898346</v>
+        <v>0.6623275688901913</v>
       </c>
       <c r="D4">
-        <v>0.2413484504048</v>
+        <v>0.1617977660651491</v>
       </c>
       <c r="E4">
-        <v>0.05387048033513153</v>
+        <v>0.1252459549595599</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008432941825684665</v>
+        <v>1.425108314930867</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8090549001850036</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01111958526461532</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.364221723026901</v>
+        <v>0.8755715135472926</v>
       </c>
       <c r="N4">
-        <v>3.929170575162715</v>
+        <v>0.7464462063390584</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.047959029794242</v>
+        <v>2.412537313824259</v>
       </c>
       <c r="C5">
-        <v>1.578904960920966</v>
+        <v>0.6339205060139932</v>
       </c>
       <c r="D5">
-        <v>0.2365595328483749</v>
+        <v>0.1548230628867771</v>
       </c>
       <c r="E5">
-        <v>0.05328888632100259</v>
+        <v>0.1202734277757536</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000847595854952965</v>
+        <v>1.375302954963246</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7881124141206044</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0111657925937978</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.315473460344123</v>
+        <v>0.8373599327327383</v>
       </c>
       <c r="N5">
-        <v>3.868419838995806</v>
+        <v>0.7572489977627228</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.014580609961968</v>
+        <v>2.394389105096707</v>
       </c>
       <c r="C6">
-        <v>1.568258262388269</v>
+        <v>0.6292141763562995</v>
       </c>
       <c r="D6">
-        <v>0.2357737821017309</v>
+        <v>0.1536688905912627</v>
       </c>
       <c r="E6">
-        <v>0.05319401185041528</v>
+        <v>0.1194525179376775</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008483127102483142</v>
+        <v>1.36709038900733</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7846660446446947</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01117353686343581</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.307443968015761</v>
+        <v>0.8310353332206475</v>
       </c>
       <c r="N6">
-        <v>3.858403344778537</v>
+        <v>0.7590664898181672</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.247736026314385</v>
+        <v>2.5206304999694</v>
       </c>
       <c r="C7">
-        <v>1.642644821509805</v>
+        <v>0.661943723370257</v>
       </c>
       <c r="D7">
-        <v>0.2412832189793619</v>
+        <v>0.1617034296693731</v>
       </c>
       <c r="E7">
-        <v>0.05386252090915455</v>
+        <v>0.1251785663281275</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000843352029045144</v>
+        <v>1.424432684701742</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.808770340193945</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01112020364538058</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.363559806758289</v>
+        <v>0.8750547733471805</v>
       </c>
       <c r="N7">
-        <v>3.928346379580489</v>
+        <v>0.7465902925314083</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.31836819945255</v>
+        <v>3.085495023876604</v>
       </c>
       <c r="C8">
-        <v>1.984741441654194</v>
+        <v>0.8081964334871543</v>
       </c>
       <c r="D8">
-        <v>0.2671211827760374</v>
+        <v>0.1978126169965577</v>
       </c>
       <c r="E8">
-        <v>0.0570821827914969</v>
+        <v>0.1512230997195516</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008217795051393815</v>
+        <v>1.686720253313496</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9200713556375604</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01089513754243931</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.621981356514908</v>
+        <v>1.072693469907584</v>
       </c>
       <c r="N8">
-        <v>4.248739639166644</v>
+        <v>0.6951543321819145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.631119897587837</v>
+        <v>4.232409084258791</v>
       </c>
       <c r="C9">
-        <v>2.72673690014841</v>
+        <v>1.10458981658013</v>
       </c>
       <c r="D9">
-        <v>0.3250933166190464</v>
+        <v>0.2718129788002415</v>
       </c>
       <c r="E9">
-        <v>0.06463557541215792</v>
+        <v>0.205992650708005</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007799666589160338</v>
+        <v>2.243868105272242</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.160539117319217</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01048952261631619</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.183346219949385</v>
+        <v>1.47708065311798</v>
       </c>
       <c r="N9">
-        <v>4.935905263934444</v>
+        <v>0.6091876348656342</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.54076216309545</v>
+        <v>5.11134636977107</v>
       </c>
       <c r="C10">
-        <v>3.342649811216972</v>
+        <v>1.331569414578723</v>
       </c>
       <c r="D10">
-        <v>0.3744567977631306</v>
+        <v>0.3290471708835554</v>
       </c>
       <c r="E10">
-        <v>0.07128530743426964</v>
+        <v>0.2494906323803932</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007487189620311944</v>
+        <v>2.689838133740352</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.355680236562279</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01021220208722173</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.64923337628862</v>
+        <v>1.789565966404979</v>
       </c>
       <c r="N10">
-        <v>5.497646185530186</v>
+        <v>0.55719193421114</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.48056453261802</v>
+        <v>5.52233080200881</v>
       </c>
       <c r="C11">
-        <v>3.646894171663405</v>
+        <v>1.437721087422403</v>
       </c>
       <c r="D11">
-        <v>0.3991141949353789</v>
+        <v>0.355947704571534</v>
       </c>
       <c r="E11">
-        <v>0.07465781577840147</v>
+        <v>0.2702533794174755</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007341292096964352</v>
+        <v>2.903447661785322</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.449762735863771</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01009033998452491</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.879146467903524</v>
+        <v>1.9364155046798</v>
       </c>
       <c r="N11">
-        <v>5.77209091415989</v>
+        <v>0.5365119516532317</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.84963964467079</v>
+        <v>5.679881117718821</v>
       </c>
       <c r="C12">
-        <v>3.76658672809242</v>
+        <v>1.478422249481753</v>
       </c>
       <c r="D12">
-        <v>0.4088534785677211</v>
+        <v>0.366282028405891</v>
       </c>
       <c r="E12">
-        <v>0.07599756789752732</v>
+        <v>0.2782823430876959</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007285201230903016</v>
+        <v>2.986152025028218</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.48628064195421</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01004480412480291</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.969540515122901</v>
+        <v>1.992831996806515</v>
       </c>
       <c r="N12">
-        <v>5.8794953552366</v>
+        <v>0.529163098678147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.76950813403835</v>
+        <v>5.645858935197111</v>
       </c>
       <c r="C13">
-        <v>3.740589505132277</v>
+        <v>1.469632585403019</v>
       </c>
       <c r="D13">
-        <v>0.4067364034875851</v>
+        <v>0.3640493699034408</v>
       </c>
       <c r="E13">
-        <v>0.07570599475728912</v>
+        <v>0.2765452905702475</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007297324791715005</v>
+        <v>2.968254674077599</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.478374004303589</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01005458389615921</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.949909858868338</v>
+        <v>1.980643449626868</v>
       </c>
       <c r="N13">
-        <v>5.856194453929504</v>
+        <v>0.53072339857858</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.51064369966525</v>
+        <v>5.535252116248046</v>
       </c>
       <c r="C14">
-        <v>3.656644466734292</v>
+        <v>1.441058951889829</v>
       </c>
       <c r="D14">
-        <v>0.3999068047841945</v>
+        <v>0.3567948098916247</v>
       </c>
       <c r="E14">
-        <v>0.07476669489050636</v>
+        <v>0.2709104234470985</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007336696447271079</v>
+        <v>2.910213722937897</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.452748434700908</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01008658147689889</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.886511339889097</v>
+        <v>1.941039906131948</v>
       </c>
       <c r="N14">
-        <v>5.780852216597907</v>
+        <v>0.5358973499242197</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.35390421130614</v>
+        <v>5.467762383679656</v>
       </c>
       <c r="C15">
-        <v>3.605845384154293</v>
+        <v>1.423625204210737</v>
       </c>
       <c r="D15">
-        <v>0.3957788431636544</v>
+        <v>0.3523711658500304</v>
       </c>
       <c r="E15">
-        <v>0.07419995205127705</v>
+        <v>0.2674814470883504</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007360692318535672</v>
+        <v>2.874907085727301</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.43717215186561</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0101062604554194</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.848137940448098</v>
+        <v>1.916891049029857</v>
       </c>
       <c r="N15">
-        <v>5.73518250610357</v>
+        <v>0.539131106739184</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.48100770040719</v>
+        <v>5.084737932192979</v>
       </c>
       <c r="C16">
-        <v>3.323331079863976</v>
+        <v>1.324697614281263</v>
       </c>
       <c r="D16">
-        <v>0.3728963971886117</v>
+        <v>0.3273084746254682</v>
       </c>
       <c r="E16">
-        <v>0.07107289574507547</v>
+        <v>0.2481555219559652</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007496625074972326</v>
+        <v>2.67611656744711</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.349649051830909</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01022025162784335</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.634628347468649</v>
+        <v>1.780074399740627</v>
       </c>
       <c r="N16">
-        <v>5.480150784136583</v>
+        <v>0.5586077362125437</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.96556298012365</v>
+        <v>4.852831692476343</v>
       </c>
       <c r="C17">
-        <v>3.15681250202158</v>
+        <v>1.264808878522615</v>
       </c>
       <c r="D17">
-        <v>0.3594756409744946</v>
+        <v>0.3121703302662553</v>
       </c>
       <c r="E17">
-        <v>0.0692514198752896</v>
+        <v>0.2365669794657919</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007578866901528555</v>
+        <v>2.557095485058795</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.297401640323955</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01029127307128697</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.508713745894298</v>
+        <v>1.697433198043072</v>
       </c>
       <c r="N17">
-        <v>5.329011426146906</v>
+        <v>0.5713539109375674</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.675563675299259</v>
+        <v>4.720473586972105</v>
       </c>
       <c r="C18">
-        <v>3.063224046887228</v>
+        <v>1.230629262446257</v>
       </c>
       <c r="D18">
-        <v>0.3519572500482866</v>
+        <v>0.3035430519520617</v>
       </c>
       <c r="E18">
-        <v>0.06823552072237504</v>
+        <v>0.2299915626705413</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007625839819431885</v>
+        <v>2.489629782213427</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.267841665300807</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01033252672367801</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.437927687719338</v>
+        <v>1.650333427329699</v>
       </c>
       <c r="N18">
-        <v>5.243803235971427</v>
+        <v>0.5789613029268139</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.578410049321064</v>
+        <v>4.675827112029253</v>
       </c>
       <c r="C19">
-        <v>3.031886335990293</v>
+        <v>1.219100007469706</v>
       </c>
       <c r="D19">
-        <v>0.349443956903599</v>
+        <v>0.3006350473577868</v>
       </c>
       <c r="E19">
-        <v>0.06789668450043962</v>
+        <v>0.2277799605669912</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007641695088926641</v>
+        <v>2.4669498124467</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.257913982075394</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01034656425377722</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.414222712486819</v>
+        <v>1.634456953882619</v>
       </c>
       <c r="N19">
-        <v>5.215229586440898</v>
+        <v>0.581582924581987</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.01974461416216</v>
+        <v>4.877409946567752</v>
       </c>
       <c r="C20">
-        <v>3.174305777525774</v>
+        <v>1.271155933782211</v>
       </c>
       <c r="D20">
-        <v>0.3608829773514657</v>
+        <v>0.3137733956875195</v>
       </c>
       <c r="E20">
-        <v>0.06944195182004975</v>
+        <v>0.2377911064101355</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007570148216694558</v>
+        <v>2.569660967093768</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.302911751798291</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01028367098739302</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.521943502486948</v>
+        <v>1.706184758876987</v>
       </c>
       <c r="N20">
-        <v>5.344917346173418</v>
+        <v>0.569968110262927</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.58629193074603</v>
+        <v>5.567685176363113</v>
       </c>
       <c r="C21">
-        <v>3.681169695766073</v>
+        <v>1.449437285487761</v>
       </c>
       <c r="D21">
-        <v>0.4019010918850086</v>
+        <v>0.3589214388564699</v>
       </c>
       <c r="E21">
-        <v>0.07504076794202774</v>
+        <v>0.2725607697619807</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007325157816728093</v>
+        <v>2.927210131151242</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.460249998733076</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01007716642956069</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.905035461672043</v>
+        <v>1.952649351391287</v>
       </c>
       <c r="N21">
-        <v>5.802880399008643</v>
+        <v>0.5343640706726731</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.68918479443846</v>
+        <v>6.030190054235561</v>
       </c>
       <c r="C22">
-        <v>4.039308397068567</v>
+        <v>1.568941792331032</v>
       </c>
       <c r="D22">
-        <v>0.4311146688283429</v>
+        <v>0.3893024999053978</v>
       </c>
       <c r="E22">
-        <v>0.07907436954099012</v>
+        <v>0.2962709632726543</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007159909303320674</v>
+        <v>3.171625727013719</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.568346028068476</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.009945771122710667</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.175368698723901</v>
+        <v>2.118513038134168</v>
       </c>
       <c r="N22">
-        <v>6.123009369180522</v>
+        <v>0.5139371696542767</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.09205861258215</v>
+        <v>5.78218505031225</v>
       </c>
       <c r="C23">
-        <v>3.845270034141777</v>
+        <v>1.504854207673986</v>
       </c>
       <c r="D23">
-        <v>0.4152665343718667</v>
+        <v>0.372998917633268</v>
       </c>
       <c r="E23">
-        <v>0.07688193441546431</v>
+        <v>0.2835163317090732</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000724870368531509</v>
+        <v>3.040093413794921</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.510124092639842</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0100155713010972</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.028944440454637</v>
+        <v>2.029501546814444</v>
       </c>
       <c r="N23">
-        <v>5.949925111625134</v>
+        <v>0.5245589805235369</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.995229569924504</v>
+        <v>4.866295126404111</v>
       </c>
       <c r="C24">
-        <v>3.166390457757416</v>
+        <v>1.268285654022463</v>
       </c>
       <c r="D24">
-        <v>0.3602461118257736</v>
+        <v>0.3130484152980841</v>
       </c>
       <c r="E24">
-        <v>0.0693557157592366</v>
+        <v>0.2372374095944991</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000757409087616916</v>
+        <v>2.5639771390085</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.300419151645087</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01028710657261644</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.515957386404878</v>
+        <v>1.702226905406974</v>
       </c>
       <c r="N24">
-        <v>5.337721088760304</v>
+        <v>0.5705937643633234</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.975451955103665</v>
+        <v>3.91675330036162</v>
       </c>
       <c r="C25">
-        <v>2.515952863342648</v>
+        <v>1.023058666759965</v>
       </c>
       <c r="D25">
-        <v>0.3084215173746827</v>
+        <v>0.2513640369915322</v>
       </c>
       <c r="E25">
-        <v>0.06242872756311968</v>
+        <v>0.1906844824511182</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007912995075170792</v>
+        <v>2.087554252545317</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.092637128967709</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.010595543299039</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.023838683245458</v>
+        <v>1.365392406989756</v>
       </c>
       <c r="N25">
-        <v>4.741824211262042</v>
+        <v>0.630650295735343</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.240790793297947</v>
+        <v>1.127400756369923</v>
       </c>
       <c r="C2">
-        <v>0.8483621860798394</v>
+        <v>0.2477383497348171</v>
       </c>
       <c r="D2">
-        <v>0.2077818980883137</v>
+        <v>0.07879849045720277</v>
       </c>
       <c r="E2">
-        <v>0.1584971306181728</v>
+        <v>0.08368605951984165</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.760337092322033</v>
+        <v>1.101277027665645</v>
       </c>
       <c r="H2">
-        <v>0.9515690543413484</v>
+        <v>0.9832047830831527</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.127213371124647</v>
+        <v>0.4077578897561907</v>
       </c>
       <c r="N2">
-        <v>0.6821578998649329</v>
+        <v>1.27710018740224</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.793061943562805</v>
+        <v>1.008614740519931</v>
       </c>
       <c r="C3">
-        <v>0.7325157249365475</v>
+        <v>0.2157094906861801</v>
       </c>
       <c r="D3">
-        <v>0.1790876106254018</v>
+        <v>0.07141371160065546</v>
       </c>
       <c r="E3">
-        <v>0.1376561056444565</v>
+        <v>0.07895873490489436</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.549814686880552</v>
+        <v>1.05495773986928</v>
       </c>
       <c r="H3">
-        <v>0.8617797563223917</v>
+        <v>0.9679947586264177</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9702407339127532</v>
+        <v>0.36724502438922</v>
       </c>
       <c r="N3">
-        <v>0.7209288762339909</v>
+        <v>1.292190060109959</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.522111463504871</v>
+        <v>0.9361049630625757</v>
       </c>
       <c r="C4">
-        <v>0.6623275688901913</v>
+        <v>0.196050933656096</v>
       </c>
       <c r="D4">
-        <v>0.1617977660651491</v>
+        <v>0.06692133839526093</v>
       </c>
       <c r="E4">
-        <v>0.1252459549595599</v>
+        <v>0.07611931704547814</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.425108314930867</v>
+        <v>1.027386304530808</v>
       </c>
       <c r="H4">
-        <v>0.8090549001850036</v>
+        <v>0.959310425863606</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8755715135472926</v>
+        <v>0.3425646113710528</v>
       </c>
       <c r="N4">
-        <v>0.7464462063390584</v>
+        <v>1.30201478526979</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.412537313824259</v>
+        <v>0.9066618503301811</v>
       </c>
       <c r="C5">
-        <v>0.6339205060139932</v>
+        <v>0.1880411862231028</v>
       </c>
       <c r="D5">
-        <v>0.1548230628867771</v>
+        <v>0.06510102353043123</v>
       </c>
       <c r="E5">
-        <v>0.1202734277757536</v>
+        <v>0.07497787864892658</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.375302954963246</v>
+        <v>1.016366830089396</v>
       </c>
       <c r="H5">
-        <v>0.7881124141206044</v>
+        <v>0.9559351628988964</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8373599327327383</v>
+        <v>0.3325551625862175</v>
       </c>
       <c r="N5">
-        <v>0.7572489977627228</v>
+        <v>1.30615855455666</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.394389105096707</v>
+        <v>0.9017791482211237</v>
       </c>
       <c r="C6">
-        <v>0.6292141763562995</v>
+        <v>0.186711234555105</v>
       </c>
       <c r="D6">
-        <v>0.1536688905912627</v>
+        <v>0.06479938249943018</v>
       </c>
       <c r="E6">
-        <v>0.1194525179376775</v>
+        <v>0.07478928178827715</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.36709038900733</v>
+        <v>1.014550038724138</v>
       </c>
       <c r="H6">
-        <v>0.7846660446446947</v>
+        <v>0.9553845608666052</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8310353332206475</v>
+        <v>0.330895974706884</v>
       </c>
       <c r="N6">
-        <v>0.7590664898181672</v>
+        <v>1.306855070185428</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.5206304999694</v>
+        <v>0.9357074592289223</v>
       </c>
       <c r="C7">
-        <v>0.661943723370257</v>
+        <v>0.1959429069676162</v>
       </c>
       <c r="D7">
-        <v>0.1617034296693731</v>
+        <v>0.06689674725814143</v>
       </c>
       <c r="E7">
-        <v>0.1251785663281275</v>
+        <v>0.07610386016581927</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.424432684701742</v>
+        <v>1.027236820137034</v>
       </c>
       <c r="H7">
-        <v>0.808770340193945</v>
+        <v>0.959264244451731</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8750547733471805</v>
+        <v>0.342429427224836</v>
       </c>
       <c r="N7">
-        <v>0.7465902925314083</v>
+        <v>1.302070103049864</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.085495023876604</v>
+        <v>1.08635397168274</v>
       </c>
       <c r="C8">
-        <v>0.8081964334871543</v>
+        <v>0.2366929374947233</v>
       </c>
       <c r="D8">
-        <v>0.1978126169965577</v>
+        <v>0.07624341190407335</v>
       </c>
       <c r="E8">
-        <v>0.1512230997195516</v>
+        <v>0.08204281906232325</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.686720253313496</v>
+        <v>1.085124379230706</v>
       </c>
       <c r="H8">
-        <v>0.9200713556375604</v>
+        <v>0.9778239037185017</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.072693469907584</v>
+        <v>0.3937480808051319</v>
       </c>
       <c r="N8">
-        <v>0.6951543321819145</v>
+        <v>1.282186710727522</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.232409084258791</v>
+        <v>1.385240860850899</v>
       </c>
       <c r="C9">
-        <v>1.10458981658013</v>
+        <v>0.3166908013192824</v>
       </c>
       <c r="D9">
-        <v>0.2718129788002415</v>
+        <v>0.09491364527143276</v>
       </c>
       <c r="E9">
-        <v>0.205992650708005</v>
+        <v>0.09420190060018996</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.243868105272242</v>
+        <v>1.205648888094373</v>
       </c>
       <c r="H9">
-        <v>1.160539117319217</v>
+        <v>1.019460377253495</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.47708065311798</v>
+        <v>0.4959756231912991</v>
       </c>
       <c r="N9">
-        <v>0.6091876348656342</v>
+        <v>1.247659971920307</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.11134636977107</v>
+        <v>1.607103182306616</v>
       </c>
       <c r="C10">
-        <v>1.331569414578723</v>
+        <v>0.3755648734850183</v>
       </c>
       <c r="D10">
-        <v>0.3290471708835554</v>
+        <v>0.1088526151265228</v>
       </c>
       <c r="E10">
-        <v>0.2494906323803932</v>
+        <v>0.1034647598186993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.689838133740352</v>
+        <v>1.29863812211272</v>
       </c>
       <c r="H10">
-        <v>1.355680236562279</v>
+        <v>1.053315043973925</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.789565966404979</v>
+        <v>0.5721262307126693</v>
       </c>
       <c r="N10">
-        <v>0.55719193421114</v>
+        <v>1.225049145398756</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.52233080200881</v>
+        <v>1.708562395995273</v>
       </c>
       <c r="C11">
-        <v>1.437721087422403</v>
+        <v>0.4023803639837524</v>
       </c>
       <c r="D11">
-        <v>0.355947704571534</v>
+        <v>0.1152451002688366</v>
       </c>
       <c r="E11">
-        <v>0.2702533794174755</v>
+        <v>0.107754003680931</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.903447661785322</v>
+        <v>1.341942667360655</v>
       </c>
       <c r="H11">
-        <v>1.449762735863771</v>
+        <v>1.069440679251102</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.9364155046798</v>
+        <v>0.6070123797577196</v>
       </c>
       <c r="N11">
-        <v>0.5365119516532317</v>
+        <v>1.215368818418078</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.679881117718821</v>
+        <v>1.747061430014298</v>
       </c>
       <c r="C12">
-        <v>1.478422249481753</v>
+        <v>0.4125402372526992</v>
       </c>
       <c r="D12">
-        <v>0.366282028405891</v>
+        <v>0.1176734091960014</v>
       </c>
       <c r="E12">
-        <v>0.2782823430876959</v>
+        <v>0.1093893796649112</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.986152025028218</v>
+        <v>1.3584880999787</v>
       </c>
       <c r="H12">
-        <v>1.48628064195421</v>
+        <v>1.075652475245477</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.992831996806515</v>
+        <v>0.6202592693230571</v>
       </c>
       <c r="N12">
-        <v>0.529163098678147</v>
+        <v>1.211790851892701</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.645858935197111</v>
+        <v>1.738766444771954</v>
       </c>
       <c r="C13">
-        <v>1.469632585403019</v>
+        <v>0.4103518751627462</v>
       </c>
       <c r="D13">
-        <v>0.3640493699034408</v>
+        <v>0.1171500876440206</v>
       </c>
       <c r="E13">
-        <v>0.2765452905702475</v>
+        <v>0.1090366726908485</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.968254674077599</v>
+        <v>1.354918166888183</v>
       </c>
       <c r="H13">
-        <v>1.478374004303589</v>
+        <v>1.074309949598074</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.980643449626868</v>
+        <v>0.6174046849277914</v>
       </c>
       <c r="N13">
-        <v>0.53072339857858</v>
+        <v>1.212557516448832</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.535252116248046</v>
+        <v>1.711728147202678</v>
       </c>
       <c r="C14">
-        <v>1.441058951889829</v>
+        <v>0.4032161104207717</v>
       </c>
       <c r="D14">
-        <v>0.3567948098916247</v>
+        <v>0.1154447249814581</v>
       </c>
       <c r="E14">
-        <v>0.2709104234470985</v>
+        <v>0.1078883223630029</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.910213722937897</v>
+        <v>1.343300909720512</v>
       </c>
       <c r="H14">
-        <v>1.452748434700908</v>
+        <v>1.069949609259595</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.941039906131948</v>
+        <v>0.6081014764973389</v>
       </c>
       <c r="N14">
-        <v>0.5358973499242197</v>
+        <v>1.215072694008519</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.467762383679656</v>
+        <v>1.695176709412976</v>
       </c>
       <c r="C15">
-        <v>1.423625204210737</v>
+        <v>0.3988459743659405</v>
       </c>
       <c r="D15">
-        <v>0.3523711658500304</v>
+        <v>0.1144011385060537</v>
       </c>
       <c r="E15">
-        <v>0.2674814470883504</v>
+        <v>0.107186382549024</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.874907085727301</v>
+        <v>1.336204220188876</v>
       </c>
       <c r="H15">
-        <v>1.43717215186561</v>
+        <v>1.067292530345185</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.916891049029857</v>
+        <v>0.6024077466360893</v>
       </c>
       <c r="N15">
-        <v>0.539131106739184</v>
+        <v>1.216624763194673</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084737932192979</v>
+        <v>1.600483477730904</v>
       </c>
       <c r="C16">
-        <v>1.324697614281263</v>
+        <v>0.3738131433019589</v>
       </c>
       <c r="D16">
-        <v>0.3273084746254682</v>
+        <v>0.10843590581608</v>
       </c>
       <c r="E16">
-        <v>0.2481555219559652</v>
+        <v>0.1031859905482762</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.67611656744711</v>
+        <v>1.295828484314683</v>
       </c>
       <c r="H16">
-        <v>1.349649051830909</v>
+        <v>1.052275879287492</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.780074399740627</v>
+        <v>0.569851355475123</v>
       </c>
       <c r="N16">
-        <v>0.5586077362125437</v>
+        <v>1.225694020373254</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.852831692476343</v>
+        <v>1.542530150814059</v>
       </c>
       <c r="C17">
-        <v>1.264808878522615</v>
+        <v>0.3584653054201112</v>
       </c>
       <c r="D17">
-        <v>0.3121703302662553</v>
+        <v>0.1047897781482163</v>
       </c>
       <c r="E17">
-        <v>0.2365669794657919</v>
+        <v>0.100751415374539</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.557095485058795</v>
+        <v>1.271318131483497</v>
       </c>
       <c r="H17">
-        <v>1.297401640323955</v>
+        <v>1.043250123867324</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.697433198043072</v>
+        <v>0.5499425203147439</v>
       </c>
       <c r="N17">
-        <v>0.5713539109375674</v>
+        <v>1.231413281411413</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.720473586972105</v>
+        <v>1.509246969901767</v>
       </c>
       <c r="C18">
-        <v>1.230629262446257</v>
+        <v>0.3496407385229077</v>
       </c>
       <c r="D18">
-        <v>0.3035430519520617</v>
+        <v>0.1026974647627839</v>
       </c>
       <c r="E18">
-        <v>0.2299915626705413</v>
+        <v>0.09935820416716723</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.489629782213427</v>
+        <v>1.257314696223716</v>
       </c>
       <c r="H18">
-        <v>1.267841665300807</v>
+        <v>1.038126918608214</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.650333427329699</v>
+        <v>0.5385144678701437</v>
       </c>
       <c r="N18">
-        <v>0.5789613029268139</v>
+        <v>1.234759794591248</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.675827112029253</v>
+        <v>1.497986390997426</v>
       </c>
       <c r="C19">
-        <v>1.219100007469706</v>
+        <v>0.3466534058648563</v>
       </c>
       <c r="D19">
-        <v>0.3006350473577868</v>
+        <v>0.1019898692134262</v>
       </c>
       <c r="E19">
-        <v>0.2277799605669912</v>
+        <v>0.09888769662097019</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.4669498124467</v>
+        <v>1.252589484002073</v>
       </c>
       <c r="H19">
-        <v>1.257913982075394</v>
+        <v>1.036403963918559</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.634456953882619</v>
+        <v>0.5346490412619573</v>
       </c>
       <c r="N19">
-        <v>0.581582924581987</v>
+        <v>1.23590262571873</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.877409946567752</v>
+        <v>1.548694188128025</v>
       </c>
       <c r="C20">
-        <v>1.271155933782211</v>
+        <v>0.3600987832423357</v>
       </c>
       <c r="D20">
-        <v>0.3137733956875195</v>
+        <v>0.1051774120348199</v>
       </c>
       <c r="E20">
-        <v>0.2377911064101355</v>
+        <v>0.1010098440982787</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.569660967093768</v>
+        <v>1.273917524408688</v>
       </c>
       <c r="H20">
-        <v>1.302911751798291</v>
+        <v>1.044203867513005</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.706184758876987</v>
+        <v>0.5520594635905809</v>
       </c>
       <c r="N20">
-        <v>0.569968110262927</v>
+        <v>1.230798557631026</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.567685176363113</v>
+        <v>1.71966780044329</v>
       </c>
       <c r="C21">
-        <v>1.449437285487761</v>
+        <v>0.4053119050854548</v>
       </c>
       <c r="D21">
-        <v>0.3589214388564699</v>
+        <v>0.115945423122767</v>
       </c>
       <c r="E21">
-        <v>0.2725607697619807</v>
+        <v>0.1082253163702021</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.927210131151242</v>
+        <v>1.346709170361805</v>
       </c>
       <c r="H21">
-        <v>1.460249998733076</v>
+        <v>1.071227478272334</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.952649351391287</v>
+        <v>0.6108330617100535</v>
       </c>
       <c r="N21">
-        <v>0.5343640706726731</v>
+        <v>1.214331537891717</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.030190054235561</v>
+        <v>1.831868223705044</v>
       </c>
       <c r="C22">
-        <v>1.568941792331032</v>
+        <v>0.4348932387536593</v>
       </c>
       <c r="D22">
-        <v>0.3893024999053978</v>
+        <v>0.1230274117710763</v>
       </c>
       <c r="E22">
-        <v>0.2962709632726543</v>
+        <v>0.113006062081638</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.171625727013719</v>
+        <v>1.395140468074857</v>
       </c>
       <c r="H22">
-        <v>1.568346028068476</v>
+        <v>1.089503665218814</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.118513038134168</v>
+        <v>0.6494568699974366</v>
       </c>
       <c r="N22">
-        <v>0.5139371696542767</v>
+        <v>1.204081271807084</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.78218505031225</v>
+        <v>1.771942050512621</v>
       </c>
       <c r="C23">
-        <v>1.504854207673986</v>
+        <v>0.4191019903253164</v>
       </c>
       <c r="D23">
-        <v>0.372998917633268</v>
+        <v>0.1192434862966678</v>
       </c>
       <c r="E23">
-        <v>0.2835163317090732</v>
+        <v>0.1104484480140968</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.040093413794921</v>
+        <v>1.369212397578025</v>
       </c>
       <c r="H23">
-        <v>1.510124092639842</v>
+        <v>1.079692702155256</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.029501546814444</v>
+        <v>0.628822878630757</v>
       </c>
       <c r="N23">
-        <v>0.5245589805235369</v>
+        <v>1.209504960421889</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.866295126404111</v>
+        <v>1.545907318120214</v>
       </c>
       <c r="C24">
-        <v>1.268285654022463</v>
+        <v>0.3593602907396303</v>
       </c>
       <c r="D24">
-        <v>0.3130484152980841</v>
+        <v>0.1050021506408143</v>
       </c>
       <c r="E24">
-        <v>0.2372374095944991</v>
+        <v>0.1008929883760388</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.5639771390085</v>
+        <v>1.272742065301514</v>
       </c>
       <c r="H24">
-        <v>1.300419151645087</v>
+        <v>1.043772475075173</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.702226905406974</v>
+        <v>0.5511023381652649</v>
       </c>
       <c r="N24">
-        <v>0.5705937643633234</v>
+        <v>1.23107629229667</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.91675330036162</v>
+        <v>1.303996726228547</v>
       </c>
       <c r="C25">
-        <v>1.023058666759965</v>
+        <v>0.2950351608429571</v>
       </c>
       <c r="D25">
-        <v>0.2513640369915322</v>
+        <v>0.08982488186347837</v>
       </c>
       <c r="E25">
-        <v>0.1906844824511182</v>
+        <v>0.09085590723140058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.087554252545317</v>
+        <v>1.172276381448285</v>
       </c>
       <c r="H25">
-        <v>1.092637128967709</v>
+        <v>1.007628414890377</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.365392406989756</v>
+        <v>0.4681424006549548</v>
       </c>
       <c r="N25">
-        <v>0.630650295735343</v>
+        <v>1.256518903598845</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.127400756369923</v>
+        <v>3.240790793298004</v>
       </c>
       <c r="C2">
-        <v>0.2477383497348171</v>
+        <v>0.8483621860795836</v>
       </c>
       <c r="D2">
-        <v>0.07879849045720277</v>
+        <v>0.2077818980882995</v>
       </c>
       <c r="E2">
-        <v>0.08368605951984165</v>
+        <v>0.1584971306181586</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.101277027665645</v>
+        <v>1.760337092322061</v>
       </c>
       <c r="H2">
-        <v>0.9832047830831527</v>
+        <v>0.95156905434132</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4077578897561907</v>
+        <v>1.127213371124633</v>
       </c>
       <c r="N2">
-        <v>1.27710018740224</v>
+        <v>0.6821578998649471</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.008614740519931</v>
+        <v>2.793061943562634</v>
       </c>
       <c r="C3">
-        <v>0.2157094906861801</v>
+        <v>0.7325157249365475</v>
       </c>
       <c r="D3">
-        <v>0.07141371160065546</v>
+        <v>0.1790876106252881</v>
       </c>
       <c r="E3">
-        <v>0.07895873490489436</v>
+        <v>0.1376561056445027</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.05495773986928</v>
+        <v>1.549814686880495</v>
       </c>
       <c r="H3">
-        <v>0.9679947586264177</v>
+        <v>0.861779756322278</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.36724502438922</v>
+        <v>0.9702407339127603</v>
       </c>
       <c r="N3">
-        <v>1.292190060109959</v>
+        <v>0.7209288762339838</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9361049630625757</v>
+        <v>2.522111463504928</v>
       </c>
       <c r="C4">
-        <v>0.196050933656096</v>
+        <v>0.662327568890106</v>
       </c>
       <c r="D4">
-        <v>0.06692133839526093</v>
+        <v>0.1617977660652343</v>
       </c>
       <c r="E4">
-        <v>0.07611931704547814</v>
+        <v>0.1252459549595599</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.027386304530808</v>
+        <v>1.425108314930839</v>
       </c>
       <c r="H4">
-        <v>0.959310425863606</v>
+        <v>0.8090549001848615</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3425646113710528</v>
+        <v>0.8755715135472784</v>
       </c>
       <c r="N4">
-        <v>1.30201478526979</v>
+        <v>0.7464462063389945</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9066618503301811</v>
+        <v>2.412537313824146</v>
       </c>
       <c r="C5">
-        <v>0.1880411862231028</v>
+        <v>0.6339205060138511</v>
       </c>
       <c r="D5">
-        <v>0.06510102353043123</v>
+        <v>0.1548230628866776</v>
       </c>
       <c r="E5">
-        <v>0.07497787864892658</v>
+        <v>0.1202734277757429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.016366830089396</v>
+        <v>1.375302954963189</v>
       </c>
       <c r="H5">
-        <v>0.9559351628988964</v>
+        <v>0.7881124141207181</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3325551625862175</v>
+        <v>0.8373599327327454</v>
       </c>
       <c r="N5">
-        <v>1.30615855455666</v>
+        <v>0.7572489977627015</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9017791482211237</v>
+        <v>2.394389105096707</v>
       </c>
       <c r="C6">
-        <v>0.186711234555105</v>
+        <v>0.6292141763563563</v>
       </c>
       <c r="D6">
-        <v>0.06479938249943018</v>
+        <v>0.1536688905912627</v>
       </c>
       <c r="E6">
-        <v>0.07478928178827715</v>
+        <v>0.1194525179376598</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.014550038724138</v>
+        <v>1.367090389007302</v>
       </c>
       <c r="H6">
-        <v>0.9553845608666052</v>
+        <v>0.7846660446447231</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.330895974706884</v>
+        <v>0.8310353332206475</v>
       </c>
       <c r="N6">
-        <v>1.306855070185428</v>
+        <v>0.7590664898181743</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9357074592289223</v>
+        <v>2.520630499969627</v>
       </c>
       <c r="C7">
-        <v>0.1959429069676162</v>
+        <v>0.661943723370257</v>
       </c>
       <c r="D7">
-        <v>0.06689674725814143</v>
+        <v>0.1617034296693873</v>
       </c>
       <c r="E7">
-        <v>0.07610386016581927</v>
+        <v>0.1251785663281133</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.027236820137034</v>
+        <v>1.424432684701713</v>
       </c>
       <c r="H7">
-        <v>0.959264244451731</v>
+        <v>0.808770340193945</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.342429427224836</v>
+        <v>0.8750547733472089</v>
       </c>
       <c r="N7">
-        <v>1.302070103049864</v>
+        <v>0.7465902925314083</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.08635397168274</v>
+        <v>3.08549502387649</v>
       </c>
       <c r="C8">
-        <v>0.2366929374947233</v>
+        <v>0.8081964334871543</v>
       </c>
       <c r="D8">
-        <v>0.07624341190407335</v>
+        <v>0.1978126169965577</v>
       </c>
       <c r="E8">
-        <v>0.08204281906232325</v>
+        <v>0.1512230997195516</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.085124379230706</v>
+        <v>1.686720253313439</v>
       </c>
       <c r="H8">
-        <v>0.9778239037185017</v>
+        <v>0.9200713556376741</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3937480808051319</v>
+        <v>1.072693469907584</v>
       </c>
       <c r="N8">
-        <v>1.282186710727522</v>
+        <v>0.6951543321819145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.385240860850899</v>
+        <v>4.232409084258563</v>
       </c>
       <c r="C9">
-        <v>0.3166908013192824</v>
+        <v>1.104589816580159</v>
       </c>
       <c r="D9">
-        <v>0.09491364527143276</v>
+        <v>0.2718129788002415</v>
       </c>
       <c r="E9">
-        <v>0.09420190060018996</v>
+        <v>0.2059926507079695</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.205648888094373</v>
+        <v>2.243868105272185</v>
       </c>
       <c r="H9">
-        <v>1.019460377253495</v>
+        <v>1.160539117319075</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4959756231912991</v>
+        <v>1.477080653117966</v>
       </c>
       <c r="N9">
-        <v>1.247659971920307</v>
+        <v>0.6091876348656342</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.607103182306616</v>
+        <v>5.111346369770899</v>
       </c>
       <c r="C10">
-        <v>0.3755648734850183</v>
+        <v>1.331569414578723</v>
       </c>
       <c r="D10">
-        <v>0.1088526151265228</v>
+        <v>0.3290471708836691</v>
       </c>
       <c r="E10">
-        <v>0.1034647598186993</v>
+        <v>0.2494906323803647</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.29863812211272</v>
+        <v>2.689838133740238</v>
       </c>
       <c r="H10">
-        <v>1.053315043973925</v>
+        <v>1.355680236562279</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5721262307126693</v>
+        <v>1.789565966404993</v>
       </c>
       <c r="N10">
-        <v>1.225049145398756</v>
+        <v>0.5571919342112039</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.708562395995273</v>
+        <v>5.522330802008867</v>
       </c>
       <c r="C11">
-        <v>0.4023803639837524</v>
+        <v>1.437721087422346</v>
       </c>
       <c r="D11">
-        <v>0.1152451002688366</v>
+        <v>0.3559477045713777</v>
       </c>
       <c r="E11">
-        <v>0.107754003680931</v>
+        <v>0.2702533794174613</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.341942667360655</v>
+        <v>2.903447661785322</v>
       </c>
       <c r="H11">
-        <v>1.069440679251102</v>
+        <v>1.449762735863629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6070123797577196</v>
+        <v>1.9364155046798</v>
       </c>
       <c r="N11">
-        <v>1.215368818418078</v>
+        <v>0.5365119516532175</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.747061430014298</v>
+        <v>5.679881117718935</v>
       </c>
       <c r="C12">
-        <v>0.4125402372526992</v>
+        <v>1.478422249481866</v>
       </c>
       <c r="D12">
-        <v>0.1176734091960014</v>
+        <v>0.3662820284056778</v>
       </c>
       <c r="E12">
-        <v>0.1093893796649112</v>
+        <v>0.2782823430877315</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.3584880999787</v>
+        <v>2.986152025028161</v>
       </c>
       <c r="H12">
-        <v>1.075652475245477</v>
+        <v>1.48628064195421</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6202592693230571</v>
+        <v>1.992831996806515</v>
       </c>
       <c r="N12">
-        <v>1.211790851892701</v>
+        <v>0.529163098678147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.738766444771954</v>
+        <v>5.645858935196998</v>
       </c>
       <c r="C13">
-        <v>0.4103518751627462</v>
+        <v>1.469632585403531</v>
       </c>
       <c r="D13">
-        <v>0.1171500876440206</v>
+        <v>0.3640493699035687</v>
       </c>
       <c r="E13">
-        <v>0.1090366726908485</v>
+        <v>0.2765452905702759</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.354918166888183</v>
+        <v>2.968254674077627</v>
       </c>
       <c r="H13">
-        <v>1.074309949598074</v>
+        <v>1.478374004303618</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6174046849277914</v>
+        <v>1.980643449626868</v>
       </c>
       <c r="N13">
-        <v>1.212557516448832</v>
+        <v>0.530723398578516</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.711728147202678</v>
+        <v>5.535252116248046</v>
       </c>
       <c r="C14">
-        <v>0.4032161104207717</v>
+        <v>1.441058951889829</v>
       </c>
       <c r="D14">
-        <v>0.1154447249814581</v>
+        <v>0.3567948098915963</v>
       </c>
       <c r="E14">
-        <v>0.1078883223630029</v>
+        <v>0.2709104234470914</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.343300909720512</v>
+        <v>2.910213722937783</v>
       </c>
       <c r="H14">
-        <v>1.069949609259595</v>
+        <v>1.452748434700936</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6081014764973389</v>
+        <v>1.941039906131948</v>
       </c>
       <c r="N14">
-        <v>1.215072694008519</v>
+        <v>0.5358973499242126</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.695176709412976</v>
+        <v>5.467762383679656</v>
       </c>
       <c r="C15">
-        <v>0.3988459743659405</v>
+        <v>1.423625204210566</v>
       </c>
       <c r="D15">
-        <v>0.1144011385060537</v>
+        <v>0.3523711658500304</v>
       </c>
       <c r="E15">
-        <v>0.107186382549024</v>
+        <v>0.2674814470883931</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.336204220188876</v>
+        <v>2.874907085727301</v>
       </c>
       <c r="H15">
-        <v>1.067292530345185</v>
+        <v>1.437172151865695</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6024077466360893</v>
+        <v>1.916891049029843</v>
       </c>
       <c r="N15">
-        <v>1.216624763194673</v>
+        <v>0.5391311067391769</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600483477730904</v>
+        <v>5.084737932192809</v>
       </c>
       <c r="C16">
-        <v>0.3738131433019589</v>
+        <v>1.324697614281149</v>
       </c>
       <c r="D16">
-        <v>0.10843590581608</v>
+        <v>0.3273084746254682</v>
       </c>
       <c r="E16">
-        <v>0.1031859905482762</v>
+        <v>0.2481555219559937</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.295828484314683</v>
+        <v>2.676116567447082</v>
       </c>
       <c r="H16">
-        <v>1.052275879287492</v>
+        <v>1.349649051830937</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.569851355475123</v>
+        <v>1.780074399740627</v>
       </c>
       <c r="N16">
-        <v>1.225694020373254</v>
+        <v>0.5586077362125437</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.542530150814059</v>
+        <v>4.852831692476286</v>
       </c>
       <c r="C17">
-        <v>0.3584653054201112</v>
+        <v>1.264808878522388</v>
       </c>
       <c r="D17">
-        <v>0.1047897781482163</v>
+        <v>0.3121703302664969</v>
       </c>
       <c r="E17">
-        <v>0.100751415374539</v>
+        <v>0.2365669794657705</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.271318131483497</v>
+        <v>2.557095485058767</v>
       </c>
       <c r="H17">
-        <v>1.043250123867324</v>
+        <v>1.297401640323955</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5499425203147439</v>
+        <v>1.697433198043086</v>
       </c>
       <c r="N17">
-        <v>1.231413281411413</v>
+        <v>0.5713539109376313</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.509246969901767</v>
+        <v>4.720473586972048</v>
       </c>
       <c r="C18">
-        <v>0.3496407385229077</v>
+        <v>1.230629262445916</v>
       </c>
       <c r="D18">
-        <v>0.1026974647627839</v>
+        <v>0.3035430519520759</v>
       </c>
       <c r="E18">
-        <v>0.09935820416716723</v>
+        <v>0.2299915626704845</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.257314696223716</v>
+        <v>2.489629782213427</v>
       </c>
       <c r="H18">
-        <v>1.038126918608214</v>
+        <v>1.267841665300807</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5385144678701437</v>
+        <v>1.650333427329684</v>
       </c>
       <c r="N18">
-        <v>1.234759794591248</v>
+        <v>0.57896130292675</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.497986390997426</v>
+        <v>4.675827112029026</v>
       </c>
       <c r="C19">
-        <v>0.3466534058648563</v>
+        <v>1.219100007470161</v>
       </c>
       <c r="D19">
-        <v>0.1019898692134262</v>
+        <v>0.3006350473581136</v>
       </c>
       <c r="E19">
-        <v>0.09888769662097019</v>
+        <v>0.2277799605669344</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.252589484002073</v>
+        <v>2.466949812446813</v>
       </c>
       <c r="H19">
-        <v>1.036403963918559</v>
+        <v>1.257913982075507</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5346490412619573</v>
+        <v>1.634456953882591</v>
       </c>
       <c r="N19">
-        <v>1.23590262571873</v>
+        <v>0.5815829245819444</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.548694188128025</v>
+        <v>4.877409946567752</v>
       </c>
       <c r="C20">
-        <v>0.3600987832423357</v>
+        <v>1.271155933782609</v>
       </c>
       <c r="D20">
-        <v>0.1051774120348199</v>
+        <v>0.3137733956875053</v>
       </c>
       <c r="E20">
-        <v>0.1010098440982787</v>
+        <v>0.237791106410107</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.273917524408688</v>
+        <v>2.569660967093654</v>
       </c>
       <c r="H20">
-        <v>1.044203867513005</v>
+        <v>1.30291175179832</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5520594635905809</v>
+        <v>1.706184758876987</v>
       </c>
       <c r="N20">
-        <v>1.230798557631026</v>
+        <v>0.5699681102629413</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.71966780044329</v>
+        <v>5.56768517636317</v>
       </c>
       <c r="C21">
-        <v>0.4053119050854548</v>
+        <v>1.449437285487647</v>
       </c>
       <c r="D21">
-        <v>0.115945423122767</v>
+        <v>0.3589214388564983</v>
       </c>
       <c r="E21">
-        <v>0.1082253163702021</v>
+        <v>0.2725607697620163</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.346709170361805</v>
+        <v>2.927210131151298</v>
       </c>
       <c r="H21">
-        <v>1.071227478272334</v>
+        <v>1.460249998733104</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6108330617100535</v>
+        <v>1.952649351391287</v>
       </c>
       <c r="N21">
-        <v>1.214331537891717</v>
+        <v>0.5343640706726163</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.831868223705044</v>
+        <v>6.030190054235504</v>
       </c>
       <c r="C22">
-        <v>0.4348932387536593</v>
+        <v>1.568941792331032</v>
       </c>
       <c r="D22">
-        <v>0.1230274117710763</v>
+        <v>0.3893024999052983</v>
       </c>
       <c r="E22">
-        <v>0.113006062081638</v>
+        <v>0.2962709632727183</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.395140468074857</v>
+        <v>3.171625727013691</v>
       </c>
       <c r="H22">
-        <v>1.089503665218814</v>
+        <v>1.568346028068476</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6494568699974366</v>
+        <v>2.118513038134168</v>
       </c>
       <c r="N22">
-        <v>1.204081271807084</v>
+        <v>0.5139371696542838</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.771942050512621</v>
+        <v>5.782185050312023</v>
       </c>
       <c r="C23">
-        <v>0.4191019903253164</v>
+        <v>1.504854207673588</v>
       </c>
       <c r="D23">
-        <v>0.1192434862966678</v>
+        <v>0.3729989176332822</v>
       </c>
       <c r="E23">
-        <v>0.1104484480140968</v>
+        <v>0.2835163317091016</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.369212397578025</v>
+        <v>3.040093413794864</v>
       </c>
       <c r="H23">
-        <v>1.079692702155256</v>
+        <v>1.51012409263987</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.628822878630757</v>
+        <v>2.029501546814444</v>
       </c>
       <c r="N23">
-        <v>1.209504960421889</v>
+        <v>0.5245589805235795</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.545907318120214</v>
+        <v>4.866295126404168</v>
       </c>
       <c r="C24">
-        <v>0.3593602907396303</v>
+        <v>1.268285654022293</v>
       </c>
       <c r="D24">
-        <v>0.1050021506408143</v>
+        <v>0.3130484152980699</v>
       </c>
       <c r="E24">
-        <v>0.1008929883760388</v>
+        <v>0.2372374095944849</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.272742065301514</v>
+        <v>2.5639771390085</v>
       </c>
       <c r="H24">
-        <v>1.043772475075173</v>
+        <v>1.300419151645201</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5511023381652649</v>
+        <v>1.702226905406974</v>
       </c>
       <c r="N24">
-        <v>1.23107629229667</v>
+        <v>0.5705937643633163</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.303996726228547</v>
+        <v>3.916753300361563</v>
       </c>
       <c r="C25">
-        <v>0.2950351608429571</v>
+        <v>1.023058666759738</v>
       </c>
       <c r="D25">
-        <v>0.08982488186347837</v>
+        <v>0.2513640369916317</v>
       </c>
       <c r="E25">
-        <v>0.09085590723140058</v>
+        <v>0.1906844824510969</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.172276381448285</v>
+        <v>2.087554252545345</v>
       </c>
       <c r="H25">
-        <v>1.007628414890377</v>
+        <v>1.092637128967681</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4681424006549548</v>
+        <v>1.365392406989741</v>
       </c>
       <c r="N25">
-        <v>1.256518903598845</v>
+        <v>0.630650295735343</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.240790793298004</v>
+        <v>2.607055719974085</v>
       </c>
       <c r="C2">
-        <v>0.8483621860795836</v>
+        <v>0.9459459414835862</v>
       </c>
       <c r="D2">
-        <v>0.2077818980882995</v>
+        <v>0.3730802836222153</v>
       </c>
       <c r="E2">
-        <v>0.1584971306181586</v>
+        <v>0.1194458572072072</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.760337092322061</v>
+        <v>1.518969261706872</v>
       </c>
       <c r="H2">
-        <v>0.95156905434132</v>
+        <v>0.002094325734605551</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004996718030074732</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9262595810502319</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7283776780702453</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04693776133706251</v>
       </c>
       <c r="M2">
-        <v>1.127213371124633</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6821578998649471</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8859942716488192</v>
+      </c>
+      <c r="P2">
+        <v>0.9031218263819483</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.793061943562634</v>
+        <v>2.268867298507359</v>
       </c>
       <c r="C3">
-        <v>0.7325157249365475</v>
+        <v>0.8211017538412477</v>
       </c>
       <c r="D3">
-        <v>0.1790876106252881</v>
+        <v>0.3395706350051739</v>
       </c>
       <c r="E3">
-        <v>0.1376561056445027</v>
+        <v>0.1080445110633832</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.549814686880495</v>
+        <v>1.385782728582257</v>
       </c>
       <c r="H3">
-        <v>0.861779756322278</v>
+        <v>0.004356749160258522</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001101460501408358</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8678241315101616</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6885297911667436</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04107756045267763</v>
       </c>
       <c r="M3">
-        <v>0.9702407339127603</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7209288762339838</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7751740017356852</v>
+      </c>
+      <c r="P3">
+        <v>0.93568025961053</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.522111463504928</v>
+        <v>2.061063289234824</v>
       </c>
       <c r="C4">
-        <v>0.662327568890106</v>
+        <v>0.74520392848234</v>
       </c>
       <c r="D4">
-        <v>0.1617977660652343</v>
+        <v>0.3191348030943573</v>
       </c>
       <c r="E4">
-        <v>0.1252459549595599</v>
+        <v>0.1010565203913281</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.425108314930839</v>
+        <v>1.304796395104404</v>
       </c>
       <c r="H4">
-        <v>0.8090549001848615</v>
+        <v>0.00621519936478776</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001868468332651751</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8324257024087842</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6643285667447429</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03754523057600245</v>
       </c>
       <c r="M4">
-        <v>0.8755715135472784</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7464462063389945</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.707297403392964</v>
+      </c>
+      <c r="P4">
+        <v>0.9560892288295371</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.412537313824146</v>
+        <v>1.974691818870781</v>
       </c>
       <c r="C5">
-        <v>0.6339205060138511</v>
+        <v>0.7150764235854581</v>
       </c>
       <c r="D5">
-        <v>0.1548230628866776</v>
+        <v>0.3108419762634043</v>
       </c>
       <c r="E5">
-        <v>0.1202734277757429</v>
+        <v>0.09821103197411674</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.375302954963189</v>
+        <v>1.270470934964891</v>
       </c>
       <c r="H5">
-        <v>0.7881124141207181</v>
+        <v>0.007088837036576312</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002349479737481897</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.817354208684776</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.653630470954937</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0361170277879399</v>
       </c>
       <c r="M5">
-        <v>0.8373599327327454</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7572489977627015</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6795217689666657</v>
+      </c>
+      <c r="P5">
+        <v>0.9641511110986567</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.394389105096707</v>
+        <v>1.958355764861039</v>
       </c>
       <c r="C6">
-        <v>0.6292141763563563</v>
+        <v>0.7108591576597121</v>
       </c>
       <c r="D6">
-        <v>0.1536688905912627</v>
+        <v>0.3094724569957776</v>
       </c>
       <c r="E6">
-        <v>0.1194525179376598</v>
+        <v>0.09774008789143096</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.367090389007302</v>
+        <v>1.262952632175555</v>
       </c>
       <c r="H6">
-        <v>0.7846660446447231</v>
+        <v>0.007246031614146276</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002533299787691234</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.813934496148363</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6507649561919777</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03587786694862061</v>
       </c>
       <c r="M6">
-        <v>0.8310353332206475</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7590664898181743</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6747324984160343</v>
+      </c>
+      <c r="P6">
+        <v>0.9650639435081168</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.520630499969627</v>
+        <v>2.054442165929572</v>
       </c>
       <c r="C7">
-        <v>0.661943723370257</v>
+        <v>0.7469203801494473</v>
       </c>
       <c r="D7">
-        <v>0.1617034296693873</v>
+        <v>0.3190390601382802</v>
       </c>
       <c r="E7">
-        <v>0.1251785663281133</v>
+        <v>0.1010225108013962</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.424432684701713</v>
+        <v>1.299330281810185</v>
       </c>
       <c r="H7">
-        <v>0.808770340193945</v>
+        <v>0.006240286815502594</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002125419622800884</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.8296974837281539</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6611965977503047</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03751818627042347</v>
       </c>
       <c r="M7">
-        <v>0.8750547733472089</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7465902925314083</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7064324084112954</v>
+      </c>
+      <c r="P7">
+        <v>0.9550328939142609</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.08549502387649</v>
+        <v>2.483149616510048</v>
       </c>
       <c r="C8">
-        <v>0.8081964334871543</v>
+        <v>0.9055598714845985</v>
       </c>
       <c r="D8">
-        <v>0.1978126169965577</v>
+        <v>0.3615171953067176</v>
       </c>
       <c r="E8">
-        <v>0.1512230997195516</v>
+        <v>0.1155169894786887</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.686720253313439</v>
+        <v>1.466210640913317</v>
       </c>
       <c r="H8">
-        <v>0.9200713556376741</v>
+        <v>0.002784902209675533</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0009114336641484755</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9026526610930716</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7106118491155158</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04489018626100716</v>
       </c>
       <c r="M8">
-        <v>1.072693469907584</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6951543321819145</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8470821720109996</v>
+      </c>
+      <c r="P8">
+        <v>0.9127877891671865</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.232409084258563</v>
+        <v>3.333798288852734</v>
       </c>
       <c r="C9">
-        <v>1.104589816580159</v>
+        <v>1.219898752232211</v>
       </c>
       <c r="D9">
-        <v>0.2718129788002415</v>
+        <v>0.4461218990595341</v>
       </c>
       <c r="E9">
-        <v>0.2059926507079695</v>
+        <v>0.1441373966545036</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.243868105272185</v>
+        <v>1.810061741873056</v>
       </c>
       <c r="H9">
-        <v>1.160539117319075</v>
+        <v>1.82864312003872E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001614200169599123</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.054675460796915</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8154295460214058</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0600314919079139</v>
       </c>
       <c r="M9">
-        <v>1.477080653117966</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6091876348656342</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.125688296624304</v>
+      </c>
+      <c r="P9">
+        <v>0.8354435950558745</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.111346369770899</v>
+        <v>3.941537027634467</v>
       </c>
       <c r="C10">
-        <v>1.331569414578723</v>
+        <v>1.446072083107708</v>
       </c>
       <c r="D10">
-        <v>0.3290471708836691</v>
+        <v>0.4991240552380987</v>
       </c>
       <c r="E10">
-        <v>0.2494906323803647</v>
+        <v>0.1591907237632846</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.689838133740238</v>
+        <v>2.038524873325628</v>
       </c>
       <c r="H10">
-        <v>1.355680236562279</v>
+        <v>0.0009661609219260292</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004674646002475136</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.15470288541573</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8810201260960824</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06835683935264925</v>
       </c>
       <c r="M10">
-        <v>1.789565966404993</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5571919342112039</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.311385656596769</v>
+      </c>
+      <c r="P10">
+        <v>0.7766382711039199</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.522330802008867</v>
+        <v>4.065612734935542</v>
       </c>
       <c r="C11">
-        <v>1.437721087422346</v>
+        <v>1.451260857056468</v>
       </c>
       <c r="D11">
-        <v>0.3559477045713777</v>
+        <v>0.4369256484497726</v>
       </c>
       <c r="E11">
-        <v>0.2702533794174613</v>
+        <v>0.1179081434497178</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.903447661785322</v>
+        <v>1.894545420337067</v>
       </c>
       <c r="H11">
-        <v>1.449762735863629</v>
+        <v>0.01960602385857868</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006096852191684654</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.077123555127855</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.803630800140958</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05299514152347662</v>
       </c>
       <c r="M11">
-        <v>1.9364155046798</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5365119516532175</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.218087668583422</v>
+      </c>
+      <c r="P11">
+        <v>0.7240199627779038</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.679881117718935</v>
+        <v>4.048464324157294</v>
       </c>
       <c r="C12">
-        <v>1.478422249481866</v>
+        <v>1.403590276818704</v>
       </c>
       <c r="D12">
-        <v>0.3662820284056778</v>
+        <v>0.3772306090781825</v>
       </c>
       <c r="E12">
-        <v>0.2782823430877315</v>
+        <v>0.08822962869018625</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.986152025028161</v>
+        <v>1.736397542376665</v>
       </c>
       <c r="H12">
-        <v>1.48628064195421</v>
+        <v>0.05810286032843948</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006120895949001337</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9960427787932247</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7316116570993927</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05244882766223746</v>
       </c>
       <c r="M12">
-        <v>1.992831996806515</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.529163098678147</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.104456606521886</v>
+      </c>
+      <c r="P12">
+        <v>0.7044542766608219</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.645858935196998</v>
+        <v>3.913023991010334</v>
       </c>
       <c r="C13">
-        <v>1.469632585403531</v>
+        <v>1.316247616699741</v>
       </c>
       <c r="D13">
-        <v>0.3640493699035687</v>
+        <v>0.3164541585304903</v>
       </c>
       <c r="E13">
-        <v>0.2765452905702759</v>
+        <v>0.06588345587047861</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.968254674077627</v>
+        <v>1.550935542931114</v>
       </c>
       <c r="H13">
-        <v>1.478374004303618</v>
+        <v>0.1135098430136594</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005369554503757534</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9038457289210555</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6550321688068408</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06297307999632906</v>
       </c>
       <c r="M13">
-        <v>1.980643449626868</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.530723398578516</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9688938523734265</v>
+      </c>
+      <c r="P13">
+        <v>0.7065219801609803</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.535252116248046</v>
+        <v>3.763798815778273</v>
       </c>
       <c r="C14">
-        <v>1.441058951889829</v>
+        <v>1.238484437167017</v>
       </c>
       <c r="D14">
-        <v>0.3567948098915963</v>
+        <v>0.2744219616273966</v>
       </c>
       <c r="E14">
-        <v>0.2709104234470914</v>
+        <v>0.05479122519701818</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.910213722937783</v>
+        <v>1.409422625752825</v>
       </c>
       <c r="H14">
-        <v>1.452748434700936</v>
+        <v>0.1626176291144645</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00463993515072314</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8345302084559307</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5994866270277015</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07705874044759042</v>
       </c>
       <c r="M14">
-        <v>1.941039906131948</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5358973499242126</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8655685937035074</v>
+      </c>
+      <c r="P14">
+        <v>0.7188141106137635</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.467762383679656</v>
+        <v>3.700635336955315</v>
       </c>
       <c r="C15">
-        <v>1.423625204210566</v>
+        <v>1.21215628639726</v>
       </c>
       <c r="D15">
-        <v>0.3523711658500304</v>
+        <v>0.2635470275553899</v>
       </c>
       <c r="E15">
-        <v>0.2674814470883931</v>
+        <v>0.05258672253908525</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.874907085727301</v>
+        <v>1.36736639300571</v>
       </c>
       <c r="H15">
-        <v>1.437172151865695</v>
+        <v>0.1750463581415858</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004429790994263882</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8144145810532279</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5838732134096389</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08093081988269191</v>
       </c>
       <c r="M15">
-        <v>1.916891049029843</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5391311067391769</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8353999596889636</v>
+      </c>
+      <c r="P15">
+        <v>0.7250094885098726</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084737932192809</v>
+        <v>3.466446800316987</v>
       </c>
       <c r="C16">
-        <v>1.324697614281149</v>
+        <v>1.135895868234286</v>
       </c>
       <c r="D16">
-        <v>0.3273084746254682</v>
+        <v>0.2549375399033096</v>
       </c>
       <c r="E16">
-        <v>0.2481555219559937</v>
+        <v>0.05146754348226779</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.676116567447082</v>
+        <v>1.307823005287275</v>
       </c>
       <c r="H16">
-        <v>1.349649051830937</v>
+        <v>0.162084223919706</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003327876773399296</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7903298918112682</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5708953633060716</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0749196662559477</v>
       </c>
       <c r="M16">
-        <v>1.780074399740627</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5586077362125437</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7872961684265434</v>
+      </c>
+      <c r="P16">
+        <v>0.7469042261254906</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.852831692476286</v>
+        <v>3.365720022406265</v>
       </c>
       <c r="C17">
-        <v>1.264808878522388</v>
+        <v>1.118559772072274</v>
       </c>
       <c r="D17">
-        <v>0.3121703302664969</v>
+        <v>0.2699755293041761</v>
       </c>
       <c r="E17">
-        <v>0.2365669794657705</v>
+        <v>0.05562453901466391</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.557095485058767</v>
+        <v>1.336105390986461</v>
       </c>
       <c r="H17">
-        <v>1.297401640323955</v>
+        <v>0.1242809064823263</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002910765490588219</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8081584013828262</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5898707233067881</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06165880702260296</v>
       </c>
       <c r="M17">
-        <v>1.697433198043086</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5713539109376313</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8041113919815501</v>
+      </c>
+      <c r="P17">
+        <v>0.7567302006319885</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.720473586972048</v>
+        <v>3.371916045560624</v>
       </c>
       <c r="C18">
-        <v>1.230629262445916</v>
+        <v>1.148056023208198</v>
       </c>
       <c r="D18">
-        <v>0.3035430519520759</v>
+        <v>0.3093019882563794</v>
       </c>
       <c r="E18">
-        <v>0.2299915626704845</v>
+        <v>0.06893420209011403</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.489629782213427</v>
+        <v>1.449223625903414</v>
       </c>
       <c r="H18">
-        <v>1.267841665300807</v>
+        <v>0.07144023236634212</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002623063853553376</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8669759811480162</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6420438316086461</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04738653778680479</v>
       </c>
       <c r="M18">
-        <v>1.650333427329684</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.57896130292675</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8813917752448148</v>
+      </c>
+      <c r="P18">
+        <v>0.7624255292683966</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.675827112029026</v>
+        <v>3.453158407770559</v>
       </c>
       <c r="C19">
-        <v>1.219100007470161</v>
+        <v>1.217751163643584</v>
       </c>
       <c r="D19">
-        <v>0.3006350473581136</v>
+        <v>0.3691260826776386</v>
       </c>
       <c r="E19">
-        <v>0.2277799605669344</v>
+        <v>0.09493118460885341</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.466949812446813</v>
+        <v>1.619525756544675</v>
       </c>
       <c r="H19">
-        <v>1.257913982075507</v>
+        <v>0.02617651085604678</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00295829160213934</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9527973294478613</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7152321300093689</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04325360688345081</v>
       </c>
       <c r="M19">
-        <v>1.634456953882591</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5815829245819444</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.00548723827314</v>
+      </c>
+      <c r="P19">
+        <v>0.7719061177325972</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.877409946567752</v>
+        <v>3.763395551759743</v>
       </c>
       <c r="C20">
-        <v>1.271155933782609</v>
+        <v>1.392538232464858</v>
       </c>
       <c r="D20">
-        <v>0.3137733956875053</v>
+        <v>0.4847603419184168</v>
       </c>
       <c r="E20">
-        <v>0.237791106410107</v>
+        <v>0.1549704356669395</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.569660967093654</v>
+        <v>1.96107812027941</v>
       </c>
       <c r="H20">
-        <v>1.30291175179832</v>
+        <v>0.0004880560160445135</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004369925327763369</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.11967083624603</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8537777171647249</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06593122433281096</v>
       </c>
       <c r="M20">
-        <v>1.706184758876987</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5699681102629413</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.260032547400243</v>
+      </c>
+      <c r="P20">
+        <v>0.7887028360842905</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.56768517636317</v>
+        <v>4.259828786827597</v>
       </c>
       <c r="C21">
-        <v>1.449437285487647</v>
+        <v>1.585230746919933</v>
       </c>
       <c r="D21">
-        <v>0.3589214388564983</v>
+        <v>0.5418476463715365</v>
       </c>
       <c r="E21">
-        <v>0.2725607697620163</v>
+        <v>0.1763350452575771</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.927210131151298</v>
+        <v>2.186016010505341</v>
       </c>
       <c r="H21">
-        <v>1.460249998733104</v>
+        <v>0.002130117916476104</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.007623310135433492</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.221161552197259</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9257424111020995</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07788720842118479</v>
       </c>
       <c r="M21">
-        <v>1.952649351391287</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5343640706726163</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.435778758561597</v>
+      </c>
+      <c r="P21">
+        <v>0.7513534802076975</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.030190054235504</v>
+        <v>4.584479031391936</v>
       </c>
       <c r="C22">
-        <v>1.568941792331032</v>
+        <v>1.703986668297205</v>
       </c>
       <c r="D22">
-        <v>0.3893024999052983</v>
+        <v>0.5742151450303652</v>
       </c>
       <c r="E22">
-        <v>0.2962709632727183</v>
+        <v>0.1872122664244458</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.171625727013691</v>
+        <v>2.327227386232408</v>
       </c>
       <c r="H22">
-        <v>1.568346028068476</v>
+        <v>0.003932874168677936</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01005515254536515</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.284678085116468</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9711780356147344</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08416005503962865</v>
       </c>
       <c r="M22">
-        <v>2.118513038134168</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5139371696542838</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.541459926899023</v>
+      </c>
+      <c r="P22">
+        <v>0.7267332349555176</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.782185050312023</v>
+        <v>4.417870194349462</v>
       </c>
       <c r="C23">
-        <v>1.504854207673588</v>
+        <v>1.637863972964851</v>
       </c>
       <c r="D23">
-        <v>0.3729989176332822</v>
+        <v>0.5568847923927649</v>
       </c>
       <c r="E23">
-        <v>0.2835163317091016</v>
+        <v>0.1813902447915474</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.040093413794864</v>
+        <v>2.257696693083346</v>
       </c>
       <c r="H23">
-        <v>1.51012409263987</v>
+        <v>0.002914490913110468</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008446525426333729</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.253697580907527</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9504263381063964</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08080814883548371</v>
       </c>
       <c r="M23">
-        <v>2.029501546814444</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5245589805235795</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.485610442632307</v>
+      </c>
+      <c r="P23">
+        <v>0.7409422281615328</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.866295126404168</v>
+        <v>3.778494367263704</v>
       </c>
       <c r="C24">
-        <v>1.268285654022293</v>
+        <v>1.394761035399313</v>
       </c>
       <c r="D24">
-        <v>0.3130484152980699</v>
+        <v>0.4919571624904506</v>
       </c>
       <c r="E24">
-        <v>0.2372374095944849</v>
+        <v>0.1595664781427395</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.5639771390085</v>
+        <v>1.988886279038695</v>
       </c>
       <c r="H24">
-        <v>1.300419151645201</v>
+        <v>0.0004119130142745675</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003959432178850975</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.133683548140795</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8676184417031152</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06847447127925221</v>
       </c>
       <c r="M24">
-        <v>1.702226905406974</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5705937643633163</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.274479143853753</v>
+      </c>
+      <c r="P24">
+        <v>0.7941950808456539</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.916753300361563</v>
+        <v>3.093328386275687</v>
       </c>
       <c r="C25">
-        <v>1.023058666759738</v>
+        <v>1.137850256482977</v>
       </c>
       <c r="D25">
-        <v>0.2513640369916317</v>
+        <v>0.4230896721697803</v>
       </c>
       <c r="E25">
-        <v>0.1906844824510969</v>
+        <v>0.136366197713059</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.087554252545345</v>
+        <v>1.706886155687641</v>
       </c>
       <c r="H25">
-        <v>1.092637128967681</v>
+        <v>0.0002968136630157048</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001405213712255104</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.008391718916528</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7813036589992279</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05582418826630331</v>
       </c>
       <c r="M25">
-        <v>1.365392406989741</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.630650295735343</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.049108928459077</v>
+      </c>
+      <c r="P25">
+        <v>0.854076528384379</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.607055719974085</v>
+        <v>2.397512003207453</v>
       </c>
       <c r="C2">
-        <v>0.9459459414835862</v>
+        <v>1.030936605855629</v>
       </c>
       <c r="D2">
-        <v>0.3730802836222153</v>
+        <v>0.3760267389535841</v>
       </c>
       <c r="E2">
-        <v>0.1194458572072072</v>
+        <v>0.1214211486891834</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.518969261706872</v>
+        <v>1.294534355664041</v>
       </c>
       <c r="H2">
-        <v>0.002094325734605551</v>
+        <v>0.001940419879845168</v>
       </c>
       <c r="I2">
-        <v>0.0004996718030074732</v>
+        <v>0.0005387193787305122</v>
       </c>
       <c r="J2">
-        <v>0.9262595810502319</v>
+        <v>0.859343548289047</v>
       </c>
       <c r="K2">
-        <v>0.7283776780702453</v>
+        <v>0.6011304230666141</v>
       </c>
       <c r="L2">
-        <v>0.04693776133706251</v>
+        <v>0.2790112002918264</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1801874975975011</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04835627579914714</v>
       </c>
       <c r="O2">
-        <v>0.8859942716488192</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9031218263819483</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8680217432577564</v>
+      </c>
+      <c r="R2">
+        <v>0.8477260860624738</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.268867298507359</v>
+        <v>2.09443435790655</v>
       </c>
       <c r="C3">
-        <v>0.8211017538412477</v>
+        <v>0.8927545360113243</v>
       </c>
       <c r="D3">
-        <v>0.3395706350051739</v>
+        <v>0.3429073191840502</v>
       </c>
       <c r="E3">
-        <v>0.1080445110633832</v>
+        <v>0.1103698350705891</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.385782728582257</v>
+        <v>1.191414533198497</v>
       </c>
       <c r="H3">
-        <v>0.004356749160258522</v>
+        <v>0.003933489904400234</v>
       </c>
       <c r="I3">
-        <v>0.001101460501408358</v>
+        <v>0.0008087444647442155</v>
       </c>
       <c r="J3">
-        <v>0.8678241315101616</v>
+        <v>0.8083904744407846</v>
       </c>
       <c r="K3">
-        <v>0.6885297911667436</v>
+        <v>0.5758561182873763</v>
       </c>
       <c r="L3">
-        <v>0.04107756045267763</v>
+        <v>0.2767274888437754</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1643399315514245</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0428872585922786</v>
       </c>
       <c r="O3">
-        <v>0.7751740017356852</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.93568025961053</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7604948812558376</v>
+      </c>
+      <c r="R3">
+        <v>0.8795280261627789</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.061063289234824</v>
+        <v>1.907593189819011</v>
       </c>
       <c r="C4">
-        <v>0.74520392848234</v>
+        <v>0.8087611945946946</v>
       </c>
       <c r="D4">
-        <v>0.3191348030943573</v>
+        <v>0.3227151226171685</v>
       </c>
       <c r="E4">
-        <v>0.1010565203913281</v>
+        <v>0.1035904283790501</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.304796395104404</v>
+        <v>1.128723670030269</v>
       </c>
       <c r="H4">
-        <v>0.00621519936478776</v>
+        <v>0.005559920361610349</v>
       </c>
       <c r="I4">
-        <v>0.001868468332651751</v>
+        <v>0.001276900779131118</v>
       </c>
       <c r="J4">
-        <v>0.8324257024087842</v>
+        <v>0.7770483971667659</v>
       </c>
       <c r="K4">
-        <v>0.6643285667447429</v>
+        <v>0.5603844811144896</v>
       </c>
       <c r="L4">
-        <v>0.03754523057600245</v>
+        <v>0.2750974466966625</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1554067368670893</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03956745696939379</v>
       </c>
       <c r="O4">
-        <v>0.707297403392964</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9560892288295371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.694541620957061</v>
+      </c>
+      <c r="R4">
+        <v>0.8995362948610914</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.974691818870781</v>
+        <v>1.829753273382607</v>
       </c>
       <c r="C5">
-        <v>0.7150764235854581</v>
+        <v>0.7753599602066288</v>
       </c>
       <c r="D5">
-        <v>0.3108419762634043</v>
+        <v>0.314523633432259</v>
       </c>
       <c r="E5">
-        <v>0.09821103197411674</v>
+        <v>0.1008292456154294</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.270470934964891</v>
+        <v>1.101986097394402</v>
       </c>
       <c r="H5">
-        <v>0.007088837036576312</v>
+        <v>0.006322694943379337</v>
       </c>
       <c r="I5">
-        <v>0.002349479737481897</v>
+        <v>0.00162507538475154</v>
       </c>
       <c r="J5">
-        <v>0.817354208684776</v>
+        <v>0.7635616657832003</v>
       </c>
       <c r="K5">
-        <v>0.653630470954937</v>
+        <v>0.553320927407853</v>
       </c>
       <c r="L5">
-        <v>0.0361170277879399</v>
+        <v>0.2740369663324671</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1517252957467825</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03822018301756636</v>
       </c>
       <c r="O5">
-        <v>0.6795217689666657</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9641511110986567</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6675351825672564</v>
+      </c>
+      <c r="R5">
+        <v>0.9076081224785337</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.958355764861039</v>
+        <v>1.814983103315484</v>
       </c>
       <c r="C6">
-        <v>0.7108591576597121</v>
+        <v>0.770601237354299</v>
       </c>
       <c r="D6">
-        <v>0.3094724569957776</v>
+        <v>0.3131717060794159</v>
       </c>
       <c r="E6">
-        <v>0.09774008789143096</v>
+        <v>0.1003728315759354</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.262952632175555</v>
+        <v>1.095934452949962</v>
       </c>
       <c r="H6">
-        <v>0.007246031614146276</v>
+        <v>0.006459709858303353</v>
       </c>
       <c r="I6">
-        <v>0.002533299787691234</v>
+        <v>0.00180077139780721</v>
       </c>
       <c r="J6">
-        <v>0.813934496148363</v>
+        <v>0.7604710285652345</v>
       </c>
       <c r="K6">
-        <v>0.6507649561919777</v>
+        <v>0.5512136873764106</v>
       </c>
       <c r="L6">
-        <v>0.03587786694862061</v>
+        <v>0.2734446539712465</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1508351119532598</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03799477083176228</v>
       </c>
       <c r="O6">
-        <v>0.6747324984160343</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9650639435081168</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.662881879592554</v>
+      </c>
+      <c r="R6">
+        <v>0.9087157649265534</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.054442165929572</v>
+        <v>1.899358460483796</v>
       </c>
       <c r="C7">
-        <v>0.7469203801494473</v>
+        <v>0.808529471092811</v>
       </c>
       <c r="D7">
-        <v>0.3190390601382802</v>
+        <v>0.3226779727219906</v>
       </c>
       <c r="E7">
-        <v>0.1010225108013962</v>
+        <v>0.1035895812206533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.299330281810185</v>
+        <v>1.128177687045792</v>
       </c>
       <c r="H7">
-        <v>0.006240286815502594</v>
+        <v>0.005590438337535142</v>
       </c>
       <c r="I7">
-        <v>0.002125419622800884</v>
+        <v>0.001575836614118309</v>
       </c>
       <c r="J7">
-        <v>0.8296974837281539</v>
+        <v>0.765335567198818</v>
       </c>
       <c r="K7">
-        <v>0.6611965977503047</v>
+        <v>0.5565533603605601</v>
       </c>
       <c r="L7">
-        <v>0.03751818627042347</v>
+        <v>0.2734598739002152</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1541673839899182</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03955376122906706</v>
       </c>
       <c r="O7">
-        <v>0.7064324084112954</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9550328939142609</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6929962242759586</v>
+      </c>
+      <c r="R7">
+        <v>0.8987282856029588</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483149616510048</v>
+        <v>2.279187946442278</v>
       </c>
       <c r="C8">
-        <v>0.9055598714845985</v>
+        <v>0.979525973522783</v>
       </c>
       <c r="D8">
-        <v>0.3615171953067176</v>
+        <v>0.3647903037402358</v>
       </c>
       <c r="E8">
-        <v>0.1155169894786887</v>
+        <v>0.1177219046466647</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.466210640913317</v>
+        <v>1.26719669379969</v>
       </c>
       <c r="H8">
-        <v>0.002784902209675533</v>
+        <v>0.002569903959503961</v>
       </c>
       <c r="I8">
-        <v>0.0009114336641484755</v>
+        <v>0.0009124013736805381</v>
       </c>
       <c r="J8">
-        <v>0.9026526610930716</v>
+        <v>0.808300133091052</v>
       </c>
       <c r="K8">
-        <v>0.7106118491155158</v>
+        <v>0.5851365953389376</v>
       </c>
       <c r="L8">
-        <v>0.04489018626100716</v>
+        <v>0.2752840960652776</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1720678774387387</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04648861243327218</v>
       </c>
       <c r="O8">
-        <v>0.8470821720109996</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9127877891671865</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.827895804982262</v>
+      </c>
+      <c r="R8">
+        <v>0.8570677666474028</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.333798288852734</v>
+        <v>3.035767253396557</v>
       </c>
       <c r="C9">
-        <v>1.219898752232211</v>
+        <v>1.325678528938624</v>
       </c>
       <c r="D9">
-        <v>0.4461218990595341</v>
+        <v>0.4484785227220129</v>
       </c>
       <c r="E9">
-        <v>0.1441373966545036</v>
+        <v>0.1454466836452148</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.810061741873056</v>
+        <v>1.53838444230621</v>
       </c>
       <c r="H9">
-        <v>1.82864312003872E-05</v>
+        <v>3.718938444441378E-05</v>
       </c>
       <c r="I9">
-        <v>0.001614200169599123</v>
+        <v>0.001771179811227874</v>
       </c>
       <c r="J9">
-        <v>1.054675460796915</v>
+        <v>0.9294621326427546</v>
       </c>
       <c r="K9">
-        <v>0.8154295460214058</v>
+        <v>0.6506568518316627</v>
       </c>
       <c r="L9">
-        <v>0.0600314919079139</v>
+        <v>0.2807911588441669</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.216642120237303</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06047391182704942</v>
       </c>
       <c r="O9">
-        <v>1.125688296624304</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8354435950558745</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.096866198508053</v>
+      </c>
+      <c r="R9">
+        <v>0.7813484403179667</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.941537027634467</v>
+        <v>3.561395090184931</v>
       </c>
       <c r="C10">
-        <v>1.446072083107708</v>
+        <v>1.562210169166519</v>
       </c>
       <c r="D10">
-        <v>0.4991240552380987</v>
+        <v>0.5011125937672318</v>
       </c>
       <c r="E10">
-        <v>0.1591907237632846</v>
+        <v>0.1599281654519231</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.038524873325628</v>
+        <v>1.743140508505888</v>
       </c>
       <c r="H10">
-        <v>0.0009661609219260292</v>
+        <v>0.0007193230347581903</v>
       </c>
       <c r="I10">
-        <v>0.004674646002475136</v>
+        <v>0.004318585124985397</v>
       </c>
       <c r="J10">
-        <v>1.15470288541573</v>
+        <v>0.9537654692124136</v>
       </c>
       <c r="K10">
-        <v>0.8810201260960824</v>
+        <v>0.6825843731787131</v>
       </c>
       <c r="L10">
-        <v>0.06835683935264925</v>
+        <v>0.2776981517282238</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2469239821755664</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06774169853283496</v>
       </c>
       <c r="O10">
-        <v>1.311385656596769</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7766382711039199</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.271023218980332</v>
+      </c>
+      <c r="R10">
+        <v>0.7267887859572326</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.065612734935542</v>
+        <v>3.659014098202761</v>
       </c>
       <c r="C11">
-        <v>1.451260857056468</v>
+        <v>1.538171840747793</v>
       </c>
       <c r="D11">
-        <v>0.4369256484497726</v>
+        <v>0.4391424836204294</v>
       </c>
       <c r="E11">
-        <v>0.1179081434497178</v>
+        <v>0.1182444753630456</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.894545420337067</v>
+        <v>1.672501563035809</v>
       </c>
       <c r="H11">
-        <v>0.01960602385857868</v>
+        <v>0.01929515174555263</v>
       </c>
       <c r="I11">
-        <v>0.006096852191684654</v>
+        <v>0.005584056470039123</v>
       </c>
       <c r="J11">
-        <v>1.077123555127855</v>
+        <v>0.7870052892226909</v>
       </c>
       <c r="K11">
-        <v>0.803630800140958</v>
+        <v>0.6069371848755267</v>
       </c>
       <c r="L11">
-        <v>0.05299514152347662</v>
+        <v>0.2444843548591251</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2248017619160763</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05118723952407755</v>
       </c>
       <c r="O11">
-        <v>1.218087668583422</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7240199627779038</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.170898975413323</v>
+      </c>
+      <c r="R11">
+        <v>0.7057865735242146</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.048464324157294</v>
+        <v>3.644931628049051</v>
       </c>
       <c r="C12">
-        <v>1.403590276818704</v>
+        <v>1.471419489159985</v>
       </c>
       <c r="D12">
-        <v>0.3772306090781825</v>
+        <v>0.3794259704933864</v>
       </c>
       <c r="E12">
-        <v>0.08822962869018625</v>
+        <v>0.08812431626659922</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.736397542376665</v>
+        <v>1.561457881493766</v>
       </c>
       <c r="H12">
-        <v>0.05810286032843948</v>
+        <v>0.0578228165463841</v>
       </c>
       <c r="I12">
-        <v>0.006120895949001337</v>
+        <v>0.005580773057741517</v>
       </c>
       <c r="J12">
-        <v>0.9960427787932247</v>
+        <v>0.684085781645777</v>
       </c>
       <c r="K12">
-        <v>0.7316116570993927</v>
+        <v>0.5471359769748929</v>
       </c>
       <c r="L12">
-        <v>0.05244882766223746</v>
+        <v>0.2214787602939197</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2033366860864874</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04967530185760349</v>
       </c>
       <c r="O12">
-        <v>1.104456606521886</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7044542766608219</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.057007252121025</v>
+      </c>
+      <c r="R12">
+        <v>0.71132868431053</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.913023991010334</v>
+        <v>3.541965633370467</v>
       </c>
       <c r="C13">
-        <v>1.316247616699741</v>
+        <v>1.376094230914191</v>
       </c>
       <c r="D13">
-        <v>0.3164541585304903</v>
+        <v>0.318333683864239</v>
       </c>
       <c r="E13">
-        <v>0.06588345587047861</v>
+        <v>0.06535480036805197</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.550935542931114</v>
+        <v>1.397481606546819</v>
       </c>
       <c r="H13">
-        <v>0.1135098430136594</v>
+        <v>0.1133333510959744</v>
       </c>
       <c r="I13">
-        <v>0.005369554503757534</v>
+        <v>0.005004088767115888</v>
       </c>
       <c r="J13">
-        <v>0.9038457289210555</v>
+        <v>0.6295447607239879</v>
       </c>
       <c r="K13">
-        <v>0.6550321688068408</v>
+        <v>0.493678681781816</v>
       </c>
       <c r="L13">
-        <v>0.06297307999632906</v>
+        <v>0.2034059079518684</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1807800562560189</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0596300485729877</v>
       </c>
       <c r="O13">
-        <v>0.9688938523734265</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7065219801609803</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9273395506623103</v>
+      </c>
+      <c r="R13">
+        <v>0.7325077007215803</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.763798815778273</v>
+        <v>3.428165758542207</v>
       </c>
       <c r="C14">
-        <v>1.238484437167017</v>
+        <v>1.29714895465338</v>
       </c>
       <c r="D14">
-        <v>0.2744219616273966</v>
+        <v>0.2759885184548239</v>
       </c>
       <c r="E14">
-        <v>0.05479122519701818</v>
+        <v>0.05405079181716754</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.409422625752825</v>
+        <v>1.261406056474357</v>
       </c>
       <c r="H14">
-        <v>0.1626176291144645</v>
+        <v>0.1625246233435718</v>
       </c>
       <c r="I14">
-        <v>0.00463993515072314</v>
+        <v>0.00447643632824235</v>
       </c>
       <c r="J14">
-        <v>0.8345302084559307</v>
+        <v>0.6087739884552263</v>
       </c>
       <c r="K14">
-        <v>0.5994866270277015</v>
+        <v>0.4583669571303233</v>
       </c>
       <c r="L14">
-        <v>0.07705874044759042</v>
+        <v>0.1924631918279509</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1644669230771925</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07361901702068252</v>
       </c>
       <c r="O14">
-        <v>0.8655685937035074</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7188141106137635</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8303947448113362</v>
+      </c>
+      <c r="R14">
+        <v>0.7540740125676848</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.700635336955315</v>
+        <v>3.379354297149234</v>
       </c>
       <c r="C15">
-        <v>1.21215628639726</v>
+        <v>1.272274655160288</v>
       </c>
       <c r="D15">
-        <v>0.2635470275553899</v>
+        <v>0.2650089014358628</v>
       </c>
       <c r="E15">
-        <v>0.05258672253908525</v>
+        <v>0.05184021559388707</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.36736639300571</v>
+        <v>1.217223937452104</v>
       </c>
       <c r="H15">
-        <v>0.1750463581415858</v>
+        <v>0.1749832056249261</v>
       </c>
       <c r="I15">
-        <v>0.004429790994263882</v>
+        <v>0.004368677488312933</v>
       </c>
       <c r="J15">
-        <v>0.8144145810532279</v>
+        <v>0.6101611124891946</v>
       </c>
       <c r="K15">
-        <v>0.5838732134096389</v>
+        <v>0.4496868226685038</v>
       </c>
       <c r="L15">
-        <v>0.08093081988269191</v>
+        <v>0.1901997703237654</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.159842936117343</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0776069833251789</v>
       </c>
       <c r="O15">
-        <v>0.8353999596889636</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7250094885098726</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8027694343864127</v>
+      </c>
+      <c r="R15">
+        <v>0.7611256193527467</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.466446800316987</v>
+        <v>3.193479344384684</v>
       </c>
       <c r="C16">
-        <v>1.135895868234286</v>
+        <v>1.209773184613653</v>
       </c>
       <c r="D16">
-        <v>0.2549375399033096</v>
+        <v>0.256193852024154</v>
       </c>
       <c r="E16">
-        <v>0.05146754348226779</v>
+        <v>0.05107993631476138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.307823005287275</v>
+        <v>1.129792501019566</v>
       </c>
       <c r="H16">
-        <v>0.162084223919706</v>
+        <v>0.1621086362508919</v>
       </c>
       <c r="I16">
-        <v>0.003327876773399296</v>
+        <v>0.00355323365174165</v>
       </c>
       <c r="J16">
-        <v>0.7903298918112682</v>
+        <v>0.6697749967301974</v>
       </c>
       <c r="K16">
-        <v>0.5708953633060716</v>
+        <v>0.4534851510254896</v>
       </c>
       <c r="L16">
-        <v>0.0749196662559477</v>
+        <v>0.1958377096441311</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1553652803487466</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07268565580757169</v>
       </c>
       <c r="O16">
-        <v>0.7872961684265434</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7469042261254906</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7632936191196507</v>
+      </c>
+      <c r="R16">
+        <v>0.7712243833570938</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.365720022406265</v>
+        <v>3.107642566906748</v>
       </c>
       <c r="C17">
-        <v>1.118559772072274</v>
+        <v>1.201065243609889</v>
       </c>
       <c r="D17">
-        <v>0.2699755293041761</v>
+        <v>0.2712787427915941</v>
       </c>
       <c r="E17">
-        <v>0.05562453901466391</v>
+        <v>0.05554534657759636</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.336105390986461</v>
+        <v>1.138458572040321</v>
       </c>
       <c r="H17">
-        <v>0.1242809064823263</v>
+        <v>0.1243225558284422</v>
       </c>
       <c r="I17">
-        <v>0.002910765490588219</v>
+        <v>0.003237906614470987</v>
       </c>
       <c r="J17">
-        <v>0.8081584013828262</v>
+        <v>0.7198384704851009</v>
       </c>
       <c r="K17">
-        <v>0.5898707233067881</v>
+        <v>0.4740435124719937</v>
       </c>
       <c r="L17">
-        <v>0.06165880702260296</v>
+        <v>0.2059715244241147</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1598540382221714</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06009344524338189</v>
       </c>
       <c r="O17">
-        <v>0.8041113919815501</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7567302006319885</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7828168011946488</v>
+      </c>
+      <c r="R17">
+        <v>0.7696405423527573</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.371916045560624</v>
+        <v>3.106838985494107</v>
       </c>
       <c r="C18">
-        <v>1.148056023208198</v>
+        <v>1.24015048284042</v>
       </c>
       <c r="D18">
-        <v>0.3093019882563794</v>
+        <v>0.3107562510112558</v>
       </c>
       <c r="E18">
-        <v>0.06893420209011403</v>
+        <v>0.06914271967218788</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.449223625903414</v>
+        <v>1.226460585148601</v>
       </c>
       <c r="H18">
-        <v>0.07144023236634212</v>
+        <v>0.07148090789446826</v>
       </c>
       <c r="I18">
-        <v>0.002623063853553376</v>
+        <v>0.002917252141506843</v>
       </c>
       <c r="J18">
-        <v>0.8669759811480162</v>
+        <v>0.7847812533005651</v>
       </c>
       <c r="K18">
-        <v>0.6420438316086461</v>
+        <v>0.5164391300941631</v>
       </c>
       <c r="L18">
-        <v>0.04738653778680479</v>
+        <v>0.2231453528104552</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1742383234619034</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04630796118953207</v>
       </c>
       <c r="O18">
-        <v>0.8813917752448148</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7624255292683966</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8594584522122872</v>
+      </c>
+      <c r="R18">
+        <v>0.7606551921828135</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.453158407770559</v>
+        <v>3.166846358326097</v>
       </c>
       <c r="C19">
-        <v>1.217751163643584</v>
+        <v>1.321373551287195</v>
       </c>
       <c r="D19">
-        <v>0.3691260826776386</v>
+        <v>0.3707609189830947</v>
       </c>
       <c r="E19">
-        <v>0.09493118460885341</v>
+        <v>0.09541314639782783</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.619525756544675</v>
+        <v>1.365581705637197</v>
       </c>
       <c r="H19">
-        <v>0.02617651085604678</v>
+        <v>0.02619930647572488</v>
       </c>
       <c r="I19">
-        <v>0.00295829160213934</v>
+        <v>0.003236992329985533</v>
       </c>
       <c r="J19">
-        <v>0.9527973294478613</v>
+        <v>0.861415535366632</v>
       </c>
       <c r="K19">
-        <v>0.7152321300093689</v>
+        <v>0.5722751710527518</v>
       </c>
       <c r="L19">
-        <v>0.04325360688345081</v>
+        <v>0.2443292803002208</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1951130097662954</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04257863042258725</v>
       </c>
       <c r="O19">
-        <v>1.00548723827314</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7719061177325972</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.980687526664056</v>
+      </c>
+      <c r="R19">
+        <v>0.7526480994822986</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.763395551759743</v>
+        <v>3.414986019760647</v>
       </c>
       <c r="C20">
-        <v>1.392538232464858</v>
+        <v>1.513066572765297</v>
       </c>
       <c r="D20">
-        <v>0.4847603419184168</v>
+        <v>0.4866368080051018</v>
       </c>
       <c r="E20">
-        <v>0.1549704356669395</v>
+        <v>0.1557509654648044</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.96107812027941</v>
+        <v>1.658363104302197</v>
       </c>
       <c r="H20">
-        <v>0.0004880560160445135</v>
+        <v>0.0003550613721006179</v>
       </c>
       <c r="I20">
-        <v>0.004369925327763369</v>
+        <v>0.004390760004845617</v>
       </c>
       <c r="J20">
-        <v>1.11967083624603</v>
+        <v>0.9721393547015396</v>
       </c>
       <c r="K20">
-        <v>0.8537777171647249</v>
+        <v>0.6702096164211682</v>
       </c>
       <c r="L20">
-        <v>0.06593122433281096</v>
+        <v>0.2770978655729905</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.237196337768367</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06558506261690056</v>
       </c>
       <c r="O20">
-        <v>1.260032547400243</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7887028360842905</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.225555757053101</v>
+      </c>
+      <c r="R20">
+        <v>0.7403124552206752</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.259828786827597</v>
+        <v>3.797756795693317</v>
       </c>
       <c r="C21">
-        <v>1.585230746919933</v>
+        <v>1.67807269555891</v>
       </c>
       <c r="D21">
-        <v>0.5418476463715365</v>
+        <v>0.544652062815203</v>
       </c>
       <c r="E21">
-        <v>0.1763350452575771</v>
+        <v>0.1773900778054873</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.186016010505341</v>
+        <v>1.942616650964453</v>
       </c>
       <c r="H21">
-        <v>0.002130117916476104</v>
+        <v>0.001519492373024622</v>
       </c>
       <c r="I21">
-        <v>0.007623310135433492</v>
+        <v>0.006792860833914283</v>
       </c>
       <c r="J21">
-        <v>1.221161552197259</v>
+        <v>0.8481226818192624</v>
       </c>
       <c r="K21">
-        <v>0.9257424111020995</v>
+        <v>0.6888159986436264</v>
       </c>
       <c r="L21">
-        <v>0.07788720842118479</v>
+        <v>0.2725887709122503</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2589991602885533</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07699020829648973</v>
       </c>
       <c r="O21">
-        <v>1.435778758561597</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7513534802076975</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.37682193974716</v>
+      </c>
+      <c r="R21">
+        <v>0.6992272386786631</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.584479031391936</v>
+        <v>4.043920399919273</v>
       </c>
       <c r="C22">
-        <v>1.703986668297205</v>
+        <v>1.774204202836131</v>
       </c>
       <c r="D22">
-        <v>0.5742151450303652</v>
+        <v>0.5777592126507045</v>
       </c>
       <c r="E22">
-        <v>0.1872122664244458</v>
+        <v>0.1885067125660598</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.327227386232408</v>
+        <v>2.135085203318226</v>
       </c>
       <c r="H22">
-        <v>0.003932874168677936</v>
+        <v>0.002850813237470717</v>
       </c>
       <c r="I22">
-        <v>0.01005515254536515</v>
+        <v>0.008384295689744192</v>
       </c>
       <c r="J22">
-        <v>1.284678085116468</v>
+        <v>0.7609328022919613</v>
       </c>
       <c r="K22">
-        <v>0.9711780356147344</v>
+        <v>0.697933345186577</v>
       </c>
       <c r="L22">
-        <v>0.08416005503962865</v>
+        <v>0.2685615811723139</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2725165737570805</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.08286747324565269</v>
       </c>
       <c r="O22">
-        <v>1.541459926899023</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7267332349555176</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.465070779138784</v>
+      </c>
+      <c r="R22">
+        <v>0.6734895085405093</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.417870194349462</v>
+        <v>3.924714943895765</v>
       </c>
       <c r="C23">
-        <v>1.637863972964851</v>
+        <v>1.725578514120912</v>
       </c>
       <c r="D23">
-        <v>0.5568847923927649</v>
+        <v>0.5598516693747797</v>
       </c>
       <c r="E23">
-        <v>0.1813902447915474</v>
+        <v>0.1824496031759537</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.257696693083346</v>
+        <v>2.024847931732637</v>
       </c>
       <c r="H23">
-        <v>0.002914490913110468</v>
+        <v>0.002107605437865256</v>
       </c>
       <c r="I23">
-        <v>0.008446525426333729</v>
+        <v>0.007195420071595571</v>
       </c>
       <c r="J23">
-        <v>1.253697580907527</v>
+        <v>0.8296420009595238</v>
       </c>
       <c r="K23">
-        <v>0.9504263381063964</v>
+        <v>0.6989329807216222</v>
       </c>
       <c r="L23">
-        <v>0.08080814883548371</v>
+        <v>0.2727365492301743</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2676592310998132</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07968311906754622</v>
       </c>
       <c r="O23">
-        <v>1.485610442632307</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7409422281615328</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.420543980088766</v>
+      </c>
+      <c r="R23">
+        <v>0.6874719229852158</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.778494367263704</v>
+        <v>3.427545136891183</v>
       </c>
       <c r="C24">
-        <v>1.394761035399313</v>
+        <v>1.51668641010707</v>
       </c>
       <c r="D24">
-        <v>0.4919571624904506</v>
+        <v>0.4938405983685641</v>
       </c>
       <c r="E24">
-        <v>0.1595664781427395</v>
+        <v>0.1603739536881861</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.988886279038695</v>
+        <v>1.681055019869291</v>
       </c>
       <c r="H24">
-        <v>0.0004119130142745675</v>
+        <v>0.0002694039140473947</v>
       </c>
       <c r="I24">
-        <v>0.003959432178850975</v>
+        <v>0.003869677248059311</v>
       </c>
       <c r="J24">
-        <v>1.133683548140795</v>
+        <v>0.9857539120215222</v>
       </c>
       <c r="K24">
-        <v>0.8676184417031152</v>
+        <v>0.6813030594090819</v>
       </c>
       <c r="L24">
-        <v>0.06847447127925221</v>
+        <v>0.2813223437388572</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2413161656731475</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06817898105711606</v>
       </c>
       <c r="O24">
-        <v>1.274479143853753</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7941950808456539</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.239721837360065</v>
+      </c>
+      <c r="R24">
+        <v>0.7421855788991822</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.093328386275687</v>
+        <v>2.825441672662805</v>
       </c>
       <c r="C25">
-        <v>1.137850256482977</v>
+        <v>1.237773200298307</v>
       </c>
       <c r="D25">
-        <v>0.4230896721697803</v>
+        <v>0.4256170153480667</v>
       </c>
       <c r="E25">
-        <v>0.136366197713059</v>
+        <v>0.1378859011393061</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.706886155687641</v>
+        <v>1.449996301422914</v>
       </c>
       <c r="H25">
-        <v>0.0002968136630157048</v>
+        <v>0.0003208207347422665</v>
       </c>
       <c r="I25">
-        <v>0.001405213712255104</v>
+        <v>0.001711296165099796</v>
       </c>
       <c r="J25">
-        <v>1.008391718916528</v>
+        <v>0.9056117844561413</v>
       </c>
       <c r="K25">
-        <v>0.7813036589992279</v>
+        <v>0.629969773068332</v>
       </c>
       <c r="L25">
-        <v>0.05582418826630331</v>
+        <v>0.2783955336709667</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2027952292718496</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05660227432085208</v>
       </c>
       <c r="O25">
-        <v>1.049108928459077</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.854076528384379</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.024114412022634</v>
+      </c>
+      <c r="R25">
+        <v>0.8008920445402055</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
